--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="测试框架" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="367">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -83,13 +83,19 @@
     <t>ts/c deveco工程地址</t>
   </si>
   <si>
-    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/pulls/14</t>
+    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test</t>
   </si>
   <si>
     <t>工程说明\适配说明</t>
   </si>
   <si>
-    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/16ca2aca8e43e723d0ea0b7db8d4a38a0d16ee4b/rosen/modules/2d_graphics/test/native_c/0readme.txt</t>
+    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt</t>
+  </si>
+  <si>
+    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt</t>
+  </si>
+  <si>
+    <t>c适配举例：https://gitee.com/xieyijun3/graphic_graphic_2d/commit/a85e1b31030d7abed8e67aee290d497a3bca3a41</t>
   </si>
   <si>
     <t>要求：</t>
@@ -428,6 +434,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -489,35 +501,6 @@
   </si>
   <si>
     <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CanvasSaveRestoreBench</t>
-    </r>
   </si>
   <si>
     <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
@@ -8877,7 +8860,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8892,7 +8875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8959,6 +8942,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9266,64 +9255,64 @@
     <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9391,11 +9380,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -9708,10 +9697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9739,7 +9728,7 @@
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -9747,13 +9736,13 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -9794,52 +9783,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -9876,1558 +9880,1558 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:16">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="28.8" spans="1:16">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="43.2" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="28.8" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" ht="57.6" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -11440,17 +11444,17 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -11463,17 +11467,17 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -11486,17 +11490,17 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -11509,17 +11513,17 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -11532,17 +11536,17 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -11555,2252 +11559,2252 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="28.8" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R87" s="14"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R91" s="14"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R93" s="14"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="28.8" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" ht="28.8" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M109" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" ht="28.8" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" ht="28.8" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R116" s="9"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q123" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R123" s="16"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q125" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R125" s="16"/>
     </row>
     <row r="126" ht="43.2" spans="1:17">
       <c r="A126" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" ht="28.8" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M133" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" ht="28.8" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P141" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" ht="28.8" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" ht="28.8" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" ht="28.8" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P147" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I153" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I161" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R176" s="2"/>
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I183" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I185" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I188" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I189" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="16:16">
       <c r="P195" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -13826,422 +13830,422 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试框架" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$L$1:$L$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$I$1:$I$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="372">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -83,19 +83,13 @@
     <t>ts/c deveco工程地址</t>
   </si>
   <si>
-    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test</t>
+    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/pulls/14</t>
   </si>
   <si>
     <t>工程说明\适配说明</t>
   </si>
   <si>
-    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt</t>
-  </si>
-  <si>
-    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt</t>
-  </si>
-  <si>
-    <t>c适配举例：https://gitee.com/xieyijun3/graphic_graphic_2d/commit/a85e1b31030d7abed8e67aee290d497a3bca3a41</t>
+    <t>https://gitee.com/xieyijun3/graphic_graphic_2d/blob/16ca2aca8e43e723d0ea0b7db8d4a38a0d16ee4b/rosen/modules/2d_graphics/test/native_c/0readme.txt</t>
   </si>
   <si>
     <t>要求：</t>
@@ -155,7 +149,7 @@
     <t>已实现用例name</t>
   </si>
   <si>
-    <t>大概性能</t>
+    <t>每次调用耗时（us）</t>
   </si>
   <si>
     <t>TS-benchmark</t>
@@ -433,6 +427,38 @@
     <t>void OH_Drawing_CanvasSave(OH_Drawing_Canvas*);</t>
   </si>
   <si>
+    <t>canvas_save_restore_8</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CanvasSaveRestoreBench</t>
+    </r>
+  </si>
+  <si>
+    <t>concat即OH_Drawing_CanvasConcatMatrix？</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasSaveLayer(OH_Drawing_Canvas*, const OH_Drawing_Rect*, const OH_Drawing_Brush*);</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -458,14 +484,237 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>ShaderMFBench</t>
+    </r>
+  </si>
+  <si>
+    <t>与drawcolor一起测试</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>CanvasSaveRestoreBench</t>
     </r>
   </si>
   <si>
-    <t>concat即OH_Drawing_CanvasConcatMatrix？</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasSaveLayer(OH_Drawing_Canvas*, const OH_Drawing_Rect*, const OH_Drawing_Brush*);</t>
+    <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRestoreToCount(OH_Drawing_Canvas*, uint32_t saveCount);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawLine(OH_Drawing_Canvas*, float x1, float y1, float x2, float y2);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>张建</t>
   </si>
   <si>
     <r>
@@ -493,23 +742,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ShaderMFBench</t>
-    </r>
-  </si>
-  <si>
-    <t>与drawcolor一起测试</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRestoreToCount(OH_Drawing_Canvas*, uint32_t saveCount);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawLine(OH_Drawing_Canvas*, float x1, float y1, float x2, float y2);</t>
+      <t>DashLineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPath(OH_Drawing_Canvas*, const OH_Drawing_Path*);</t>
   </si>
   <si>
     <r>
@@ -519,7 +756,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawLine</t>
+      <t>drawPath</t>
     </r>
     <r>
       <rPr>
@@ -537,7 +774,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x0</t>
+      <t>path</t>
     </r>
     <r>
       <rPr>
@@ -555,6 +792,140 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>见path测试</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBitmap(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, float left, float top);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawImage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pixelmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PixelMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>number</t>
     </r>
     <r>
@@ -573,7 +944,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y0</t>
+      <t>top</t>
     </r>
     <r>
       <rPr>
@@ -600,6 +971,279 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>draw_bitmap_noaa_translate</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DrawBitmapAABench</t>
+    </r>
+  </si>
+  <si>
+    <t>无bitmap，直接用drawimage的</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
+  </si>
+  <si>
+    <t>bulkrect_grid_sharedimage_ref</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BulkRectBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawImagesRef</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawRect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>同setaa</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -609,7 +1253,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x1</t>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +1289,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y1</t>
+      <t>radius</t>
     </r>
     <r>
       <rPr>
@@ -694,9 +1338,6 @@
     </r>
   </si>
   <si>
-    <t>张建</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -722,11 +1363,84 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>DashLineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPath(OH_Drawing_Canvas*, const OH_Drawing_Path*);</t>
+      <t>ClipStrategyBench</t>
+    </r>
+  </si>
+  <si>
+    <t>drawcircle的分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OvalBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
   </si>
   <si>
     <r>
@@ -736,7 +1450,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawPath</t>
+      <t>drawTextBlob</t>
     </r>
     <r>
       <rPr>
@@ -754,7 +1468,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>path</t>
+      <t>blob</t>
     </r>
     <r>
       <rPr>
@@ -772,7 +1486,79 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Path</t>
+      <t>TextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -803,173 +1589,14 @@
     </r>
   </si>
   <si>
-    <t>见path测试</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBitmap(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, float left, float top);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pixelmap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PixelMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>top</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlobCachedBench</t>
     </r>
   </si>
   <si>
@@ -998,14 +1625,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>DrawBitmapAABench</t>
-    </r>
-  </si>
-  <si>
-    <t>无bitmap，直接用drawimage的</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
+      <t>TextBlobFirstTimeBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
   </si>
   <si>
     <r>
@@ -1033,777 +1657,207 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>AAClipBench</t>
+    </r>
+  </si>
+  <si>
+    <t>走有clip分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
+  </si>
+  <si>
+    <t>clip之后画rect</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
+  </si>
+  <si>
+    <t>蒋慕寒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BigPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>选择其中1个分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilteringBench</t>
+    </r>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>功能辅助带上</t>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ShadowBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClearBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>BulkRectBench</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImagesRef</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawRect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>同setaa</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawCircle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>radius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClipStrategyBench</t>
-    </r>
-  </si>
-  <si>
-    <t>drawcircle的分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OvalBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawTextBlob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>blob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlobFirstTimeBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AAClipBench</t>
-    </r>
-  </si>
-  <si>
-    <t>走有clip分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
-  </si>
-  <si>
-    <t>clip之后画rect</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
-  </si>
-  <si>
-    <t>蒋慕寒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BigPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>选择其中1个分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilteringBench</t>
-    </r>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>功能辅助带上</t>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ShadowBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClearBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
   </si>
   <si>
     <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
@@ -8558,6 +8612,35 @@
   </si>
   <si>
     <t>60-重复计数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DrawBitmapAABench</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8570,7 +8653,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8619,6 +8702,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -8860,7 +8949,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8875,7 +8964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8942,12 +9031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9186,16 +9269,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9204,119 +9284,122 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9353,10 +9436,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9365,26 +9451,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -9697,10 +9783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9725,7 +9811,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -9739,10 +9825,10 @@
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -9753,10 +9839,10 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -9783,67 +9869,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/native_c/0readme.txt"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/blob/drawingfunc0217/rosen/modules/2d_graphics/test/ts/0readme.txt"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test" tooltip="https://gitee.com/xieyijun3/graphic_graphic_2d/tree/drawingfunc0217/rosen/modules/2d_graphics/test"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -9852,13 +9923,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9871,7 +9942,9 @@
     <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
     <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
     <col min="8" max="8" width="4.11111111111111" customWidth="1"/>
-    <col min="9" max="11" width="9.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="9.77777777777778" customWidth="1"/>
     <col min="12" max="12" width="3.66666666666667" customWidth="1"/>
     <col min="13" max="15" width="7.44444444444444" customWidth="1"/>
     <col min="16" max="16" width="46.6666666666667" customWidth="1"/>
@@ -9880,269 +9953,281 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" hidden="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:17">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>60</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" t="s">
+    </row>
+    <row r="11" ht="28.8" spans="1:16">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>68</v>
@@ -10151,19 +10236,19 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>70</v>
@@ -10174,9 +10259,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" hidden="1" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>72</v>
@@ -10185,16 +10270,16 @@
         <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>70</v>
@@ -10207,7 +10292,7 @@
     </row>
     <row r="16" ht="28.8" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>75</v>
@@ -10216,19 +10301,25 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>70</v>
@@ -10236,64 +10327,70 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17">
+        <v>2500</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>70</v>
@@ -10301,36 +10398,36 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>70</v>
@@ -10338,105 +10435,111 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:16">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>70</v>
@@ -10444,374 +10547,374 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:17">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:16">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:19">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:16">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" hidden="1" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>70</v>
@@ -10819,60 +10922,60 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:16">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" hidden="1" spans="1:16">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
         <v>132</v>
       </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>128</v>
-      </c>
       <c r="L42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>70</v>
@@ -10880,166 +10983,166 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:16">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:16">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:16">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>70</v>
@@ -11047,30 +11150,30 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" hidden="1" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>70</v>
@@ -11078,33 +11181,33 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" ht="43.2" spans="1:16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" hidden="1" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>70</v>
@@ -11112,33 +11215,33 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" spans="1:16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" ht="28.8" hidden="1" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>70</v>
@@ -11146,33 +11249,33 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" ht="57.6" spans="1:16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" ht="57.6" hidden="1" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>70</v>
@@ -11180,201 +11283,201 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:17">
       <c r="A56" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q60" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:17">
+        <v>171</v>
+      </c>
+      <c r="Q60" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" hidden="1" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>70</v>
@@ -11382,33 +11485,33 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>70</v>
@@ -11416,22 +11519,22 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -11442,19 +11545,19 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" hidden="1" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -11465,19 +11568,19 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" hidden="1" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -11488,19 +11591,19 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" hidden="1" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -11511,19 +11614,19 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" hidden="1" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -11534,19 +11637,19 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" hidden="1" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -11557,2257 +11660,2265 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>201</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>202</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:7">
+      <c r="A82" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G81" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" t="s">
-        <v>47</v>
-      </c>
-      <c r="I81" t="s">
-        <v>197</v>
-      </c>
-      <c r="L81" t="s">
-        <v>47</v>
-      </c>
-      <c r="M81" t="s">
-        <v>198</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="B82" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" ht="28.8" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" hidden="1" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M85" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M87" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q87" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="R87" s="14"/>
-    </row>
-    <row r="88" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="R87" s="15"/>
+    </row>
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P89" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-    </row>
-    <row r="90" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+    </row>
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q91" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="R91" s="14"/>
-    </row>
-    <row r="92" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="R91" s="15"/>
+    </row>
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q93" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="R93" s="14"/>
-    </row>
-    <row r="94" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="R93" s="15"/>
+    </row>
+    <row r="94" hidden="1" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" hidden="1" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I97" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M97" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q97" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" ht="28.8" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" ht="28.8" hidden="1" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:17">
       <c r="A105" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
+        <v>201</v>
+      </c>
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105" t="s">
+        <v>202</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D105" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H105" t="s">
-        <v>47</v>
-      </c>
-      <c r="I105" t="s">
-        <v>197</v>
-      </c>
-      <c r="L105" t="s">
-        <v>47</v>
-      </c>
-      <c r="M105" t="s">
-        <v>198</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="B106" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" ht="28.8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" ht="28.8" hidden="1" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I109" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M109" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q109" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q110" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="111" ht="28.8" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" ht="28.8" hidden="1" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:17">
+      <c r="A112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>201</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s">
+        <v>202</v>
+      </c>
+      <c r="P112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
-      <c r="A112" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H112" t="s">
-        <v>47</v>
-      </c>
-      <c r="I112" t="s">
-        <v>197</v>
-      </c>
-      <c r="L112" t="s">
-        <v>47</v>
-      </c>
-      <c r="M112" t="s">
-        <v>198</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="Q112" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" ht="28.8" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" ht="28.8" hidden="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="R116" s="9"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" hidden="1" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" s="12" t="s">
         <v>257</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q122" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" ht="28.8" spans="1:18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" hidden="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123" s="12" t="s">
         <v>267</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q123" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="R123" s="16"/>
-    </row>
-    <row r="124" spans="1:17">
+        <v>228</v>
+      </c>
+      <c r="Q123" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="R123" s="17"/>
+    </row>
+    <row r="124" hidden="1" spans="1:17">
       <c r="A124" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q124" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q125" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="R125" s="16"/>
-    </row>
-    <row r="126" ht="43.2" spans="1:17">
+        <v>228</v>
+      </c>
+      <c r="Q125" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="R125" s="17"/>
+    </row>
+    <row r="126" ht="43.2" hidden="1" spans="1:17">
       <c r="A126" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M126" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q126" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" ht="57.6" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" ht="57.6" hidden="1" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>280</v>
+        <v>267</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" ht="28.8" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M133" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P133" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:7">
+      <c r="A134" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="Q133" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="B134" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" ht="28.8" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" ht="28.8" hidden="1" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P137" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P141" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" ht="28.8" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" ht="28.8" hidden="1" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" ht="28.8" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" ht="28.8" hidden="1" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="145" ht="28.8" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" ht="28.8" hidden="1" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="1" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I147" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P147" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P148" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" hidden="1" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" hidden="1" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" hidden="1" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I161" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" hidden="1" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>329</v>
+        <v>322</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" hidden="1" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q170" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>332</v>
+        <v>322</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>336</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" hidden="1" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B175" s="18" t="s">
         <v>337</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" hidden="1" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I176" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" hidden="1" spans="1:19">
       <c r="A177" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>343</v>
+        <v>346</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" hidden="1" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" hidden="1" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" hidden="1" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B181" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" hidden="1" spans="1:7">
+      <c r="A182" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="B182" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:16">
       <c r="A183" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" hidden="1" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="186" hidden="1" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" hidden="1" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I187" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" hidden="1" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I188" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="189" hidden="1" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I189" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" hidden="1" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="194" spans="16:16">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" hidden="1" spans="16:16">
       <c r="P194" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="195" spans="16:16">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="195" hidden="1" spans="16:16">
       <c r="P195" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I195">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="谢益君"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -13830,107 +13941,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -13945,207 +14056,207 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -14155,97 +14266,97 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="380">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -459,6 +459,38 @@
     <t>void OH_Drawing_CanvasSaveLayer(OH_Drawing_Canvas*, const OH_Drawing_Rect*, const OH_Drawing_Brush*);</t>
   </si>
   <si>
+    <t>shadermaskfilter_bitmap_80</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ShaderMFBench</t>
+    </r>
+  </si>
+  <si>
+    <t>与drawcolor一起测试</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -484,14 +516,487 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ShaderMFBench</t>
-    </r>
-  </si>
-  <si>
-    <t>与drawcolor一起测试</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
+      <t>CanvasSaveRestoreBench</t>
+    </r>
+  </si>
+  <si>
+    <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRestoreToCount(OH_Drawing_Canvas*, uint32_t saveCount);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawLine(OH_Drawing_Canvas*, float x1, float y1, float x2, float y2);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dashline_2_circle</t>
+    </r>
+  </si>
+  <si>
+    <t>张建</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DashLineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPath(OH_Drawing_Canvas*, const OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>见path测试</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBitmap(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, float left, float top);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawImage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pixelmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PixelMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>draw_bitmap_noaa_translate</t>
   </si>
   <si>
     <r>
@@ -519,17 +1024,46 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>CanvasSaveRestoreBench</t>
-    </r>
-  </si>
-  <si>
-    <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRestoreToCount(OH_Drawing_Canvas*, uint32_t saveCount);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawLine(OH_Drawing_Canvas*, float x1, float y1, float x2, float y2);</t>
+      <t>DrawBitmapAABench</t>
+    </r>
+  </si>
+  <si>
+    <t>无bitmap，直接用drawimage的</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
+  </si>
+  <si>
+    <t>bulkrect_grid_sharedimage_ref</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BulkRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>drawImagesRef</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
   </si>
   <si>
     <r>
@@ -539,7 +1073,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawLine</t>
+      <t>drawRect</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +1091,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x0</t>
+      <t>rect</t>
     </r>
     <r>
       <rPr>
@@ -575,6 +1109,130 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>rects_stroke_0_aa</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>同setaa</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>number</t>
     </r>
     <r>
@@ -593,7 +1251,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y0</t>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -629,6 +1287,1209 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClipStrategyBench</t>
+    </r>
+  </si>
+  <si>
+    <t>drawcircle的分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OvalBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawTextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlobCachedBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlobFirstTimeBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAClipBench</t>
+    </r>
+  </si>
+  <si>
+    <t>走有clip分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
+  </si>
+  <si>
+    <t>clip之后画rect</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
+  </si>
+  <si>
+    <t>蒋慕寒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BigPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>选择其中1个分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilteringBench</t>
+    </r>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>功能辅助带上</t>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ShadowBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClearBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BulkRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ReadPixBench</t>
+    </r>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BlendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>待实现</t>
+  </si>
+  <si>
+    <t>同save</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawVertices</t>
+  </si>
+  <si>
+    <t>class VertBench</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawImagesRef</t>
+    </r>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>moveTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lineTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TrianglePathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arcTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>x1</t>
     </r>
     <r>
@@ -692,6 +2553,150 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>startDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sweepDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">): </t>
     </r>
     <r>
@@ -714,2015 +2719,7 @@
     </r>
   </si>
   <si>
-    <t>张建</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DashLineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPath(OH_Drawing_Canvas*, const OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>见path测试</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBitmap(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, float left, float top);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pixelmap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PixelMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>top</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>draw_bitmap_noaa_translate</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DrawBitmapAABench</t>
-    </r>
-  </si>
-  <si>
-    <t>无bitmap，直接用drawimage的</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
-  </si>
-  <si>
-    <t>bulkrect_grid_sharedimage_ref</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BulkRectBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImagesRef</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawRect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>同setaa</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawCircle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>radius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClipStrategyBench</t>
-    </r>
-  </si>
-  <si>
-    <t>drawcircle的分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OvalBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawTextBlob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>blob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlobCachedBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlobFirstTimeBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AAClipBench</t>
-    </r>
-  </si>
-  <si>
-    <t>走有clip分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
-  </si>
-  <si>
-    <t>clip之后画rect</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
-  </si>
-  <si>
-    <t>蒋慕寒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BigPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>选择其中1个分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilteringBench</t>
-    </r>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>功能辅助带上</t>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ShadowBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClearBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BulkRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ReadPixBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawColor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>blendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BlendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>待实现</t>
-  </si>
-  <si>
-    <t>同save</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawPoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawVertices</t>
-  </si>
-  <si>
-    <t>class VertBench</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>moveTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lineTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TrianglePathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>arcTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>startDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sweepDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>class</t>
     </r>
     <r>
@@ -5503,6 +5500,35 @@
     <t>吴智伟</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectBench</t>
+    </r>
+  </si>
+  <si>
     <t>uint32_t OH_Drawing_PenGetColor(const OH_Drawing_Pen*);</t>
   </si>
   <si>
@@ -6387,6 +6413,35 @@
   </si>
   <si>
     <t>void OH_Drawing_PenSetPathEffect(OH_Drawing_Pen*, OH_Drawing_PathEffect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DashLineBench</t>
+    </r>
   </si>
   <si>
     <t>void OH_Drawing_PenSetFilter(OH_Drawing_Pen*, OH_Drawing_Filter*);</t>
@@ -7027,6 +7082,35 @@
         <charset val="134"/>
       </rPr>
       <t>(OH_Drawing_Image*,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilteringBench</t>
     </r>
   </si>
   <si>
@@ -8639,7 +8723,36 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>DrawBitmapAABench</t>
+      <t>CirclesBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ShaderMFBench</t>
     </r>
   </si>
 </sst>
@@ -8653,7 +8766,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8707,6 +8820,12 @@
       <sz val="10.5"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8907,6 +9026,13 @@
       <color rgb="FF001080"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -9269,16 +9395,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9287,119 +9410,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9436,13 +9562,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9451,16 +9580,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9811,10 +9940,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -9822,13 +9951,13 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -9839,10 +9968,10 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -9923,27 +10052,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44444444444444" style="4" customWidth="1"/>
     <col min="2" max="2" width="76.7777777777778" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.8888888888889" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.8888888888889" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="4.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
     <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
     <col min="8" max="8" width="4.11111111111111" customWidth="1"/>
     <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="33.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="9.77777777777778" customWidth="1"/>
     <col min="12" max="12" width="3.66666666666667" customWidth="1"/>
     <col min="13" max="15" width="7.44444444444444" customWidth="1"/>
@@ -10010,7 +10139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -10022,7 +10151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -10034,7 +10163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:16">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -10052,7 +10181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -10066,7 +10195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -10080,7 +10209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -10094,7 +10223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -10108,7 +10237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:17">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -10159,19 +10288,25 @@
       <c r="I10" t="s">
         <v>48</v>
       </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>33.5</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -10192,15 +10327,15 @@
         <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -10210,12 +10345,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -10230,10 +10365,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -10247,47 +10382,53 @@
       <c r="I14" t="s">
         <v>48</v>
       </c>
+      <c r="J14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:17">
@@ -10295,10 +10436,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -10313,7 +10454,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -10322,15 +10463,15 @@
         <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -10338,7 +10479,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
@@ -10354,16 +10495,16 @@
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17">
         <v>2500</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -10372,10 +10513,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -10389,19 +10530,25 @@
       <c r="I18" t="s">
         <v>48</v>
       </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
       <c r="L18" t="s">
         <v>45</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:17">
@@ -10409,10 +10556,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -10430,15 +10577,15 @@
         <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -10446,7 +10593,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
@@ -10462,15 +10609,15 @@
         <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
@@ -10483,7 +10630,7 @@
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -10491,7 +10638,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
@@ -10507,7 +10654,7 @@
         <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:16">
@@ -10515,10 +10662,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -10533,7 +10680,7 @@
         <v>48</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>600</v>
@@ -10542,12 +10689,12 @@
         <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -10555,7 +10702,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
@@ -10571,10 +10718,10 @@
         <v>48</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -10582,7 +10729,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -10597,18 +10744,18 @@
         <v>48</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:16">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
@@ -10621,15 +10768,15 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
@@ -10642,21 +10789,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
@@ -10669,18 +10816,18 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
@@ -10690,15 +10837,15 @@
         <v>45</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -10708,12 +10855,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -10723,12 +10870,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
@@ -10738,12 +10885,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -10753,12 +10900,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:16">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
@@ -10770,18 +10917,18 @@
         <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:16">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
@@ -10794,22 +10941,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -10819,7 +10966,7 @@
         <v>45</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10827,7 +10974,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -10842,15 +10989,15 @@
         <v>48</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
@@ -10862,18 +11009,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -10885,21 +11032,21 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" hidden="1" spans="1:17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
@@ -10911,29 +11058,29 @@
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
@@ -10946,52 +11093,52 @@
         <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" hidden="1" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>132</v>
-      </c>
       <c r="L42" t="s">
         <v>45</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
@@ -11004,18 +11151,18 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
@@ -11028,18 +11175,18 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
@@ -11052,10 +11199,10 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -11063,7 +11210,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
@@ -11079,31 +11226,31 @@
         <v>48</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:19">
+    <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
@@ -11113,30 +11260,30 @@
         <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:15">
+    <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -11145,20 +11292,20 @@
         <v>45</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" hidden="1" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -11170,29 +11317,29 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
         <v>45</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" ht="43.2" hidden="1" spans="1:16">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -11204,29 +11351,29 @@
         <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" hidden="1" spans="1:16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" ht="28.8" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -11238,29 +11385,29 @@
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s">
         <v>45</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" ht="57.6" hidden="1" spans="1:16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" ht="57.6" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -11272,26 +11419,26 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:16">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -11303,18 +11450,18 @@
         <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="1:17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -11327,25 +11474,25 @@
         <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="1:16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -11357,15 +11504,15 @@
         <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -11377,18 +11524,18 @@
         <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="1:16">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -11400,15 +11547,15 @@
         <v>45</v>
       </c>
       <c r="P59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
@@ -11421,22 +11568,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q60" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" hidden="1" spans="1:17">
+        <v>175</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="R60" s="13"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -11448,21 +11595,21 @@
         <v>45</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="1:16">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
@@ -11474,29 +11621,29 @@
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:16">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -11508,26 +11655,26 @@
         <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" spans="1:15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
@@ -11545,12 +11692,12 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" hidden="1" spans="1:15">
+    <row r="65" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
@@ -11568,12 +11715,12 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" hidden="1" spans="1:15">
+    <row r="66" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
@@ -11591,12 +11738,12 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" hidden="1" spans="1:15">
+    <row r="67" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
@@ -11614,12 +11761,12 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" hidden="1" spans="1:15">
+    <row r="68" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
@@ -11637,12 +11784,12 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" hidden="1" spans="1:15">
+    <row r="69" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
@@ -11660,12 +11807,12 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" hidden="1" spans="1:7">
+    <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
@@ -11675,12 +11822,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
@@ -11690,12 +11837,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:7">
+    <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
@@ -11705,12 +11852,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:7">
+    <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
@@ -11720,12 +11867,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
@@ -11735,12 +11882,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:7">
+    <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
@@ -11750,12 +11897,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:7">
+    <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
@@ -11765,12 +11912,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
@@ -11780,36 +11927,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:7">
+    <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
@@ -11819,44 +11966,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:16">
+    <row r="81" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>206</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s">
-        <v>201</v>
-      </c>
-      <c r="L81" t="s">
-        <v>45</v>
-      </c>
-      <c r="M81" t="s">
-        <v>202</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="1:7">
-      <c r="A82" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="B82" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
@@ -11866,15 +12013,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" ht="28.8" hidden="1" spans="1:7">
+    <row r="83" ht="28.8" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -11883,12 +12030,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
@@ -11898,15 +12045,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:16">
+    <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
@@ -11918,24 +12065,24 @@
         <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L85" t="s">
         <v>45</v>
       </c>
       <c r="M85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
@@ -11945,15 +12092,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:18">
+    <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
@@ -11965,28 +12112,28 @@
         <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L87" t="s">
         <v>45</v>
       </c>
       <c r="M87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q87" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="R87" s="15"/>
-    </row>
-    <row r="88" hidden="1" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="Q87" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="R87" s="16"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
@@ -11996,12 +12143,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:18">
+    <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
         <v>45</v>
@@ -12013,20 +12160,20 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P89" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-    </row>
-    <row r="90" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
@@ -12036,39 +12183,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:18">
+    <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="P91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D91" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" t="s">
-        <v>45</v>
-      </c>
-      <c r="I91" t="s">
-        <v>201</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q91" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="R91" s="15"/>
-    </row>
-    <row r="92" hidden="1" spans="1:7">
+      <c r="Q91" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="R91" s="16"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
@@ -12078,12 +12225,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:18">
+    <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -12095,22 +12242,22 @@
         <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q93" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="R93" s="15"/>
-    </row>
-    <row r="94" hidden="1" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="Q93" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="R93" s="16"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
@@ -12123,15 +12270,15 @@
         <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -12143,18 +12290,18 @@
         <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" spans="1:9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
@@ -12167,18 +12314,18 @@
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" spans="1:17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -12190,27 +12337,27 @@
         <v>45</v>
       </c>
       <c r="I97" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s">
         <v>45</v>
       </c>
       <c r="M97" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
@@ -12220,15 +12367,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" ht="28.8" hidden="1" spans="1:7">
+    <row r="99" ht="28.8" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
@@ -12237,12 +12384,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
@@ -12252,136 +12399,136 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:6">
+    <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:17">
+    <row r="105" spans="1:17">
       <c r="A105" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H105" t="s">
         <v>45</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L105" t="s">
         <v>45</v>
       </c>
       <c r="M105" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="Q105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="106" hidden="1" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="B106" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" ht="28.8" hidden="1" spans="1:4">
+    <row r="107" ht="28.8" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:17">
+    <row r="109" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -12390,27 +12537,27 @@
         <v>45</v>
       </c>
       <c r="I109" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L109" t="s">
         <v>45</v>
       </c>
       <c r="M109" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q109" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" spans="1:17">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -12419,38 +12566,38 @@
         <v>45</v>
       </c>
       <c r="I110" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q110" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="111" ht="28.8" hidden="1" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" ht="28.8" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:17">
+    <row r="112" spans="1:17">
       <c r="A112" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -12459,63 +12606,63 @@
         <v>45</v>
       </c>
       <c r="I112" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L112" t="s">
         <v>45</v>
       </c>
       <c r="M112" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q112" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:5">
+    <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:5">
+    <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" ht="28.8" hidden="1" spans="1:18">
+    <row r="116" ht="28.8" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>258</v>
+        <v>263</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D116" t="s">
         <v>45</v>
@@ -12527,22 +12674,22 @@
         <v>45</v>
       </c>
       <c r="I116" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="R116" s="9"/>
     </row>
-    <row r="117" hidden="1" spans="1:16">
+    <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -12554,18 +12701,18 @@
         <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" hidden="1" spans="1:16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
@@ -12578,18 +12725,18 @@
         <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
@@ -12602,18 +12749,18 @@
         <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" spans="1:16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>264</v>
+        <v>270</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
@@ -12626,30 +12773,30 @@
         <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" hidden="1" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:17">
+    <row r="122" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>268</v>
+        <v>274</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
@@ -12662,25 +12809,25 @@
         <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" ht="28.8" hidden="1" spans="1:18">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
@@ -12693,26 +12840,26 @@
         <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q123" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="R123" s="17"/>
-    </row>
-    <row r="124" hidden="1" spans="1:17">
+        <v>234</v>
+      </c>
+      <c r="Q123" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="R123" s="18"/>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="D124" t="s">
         <v>45</v>
@@ -12724,25 +12871,25 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="125" hidden="1" spans="1:18">
-      <c r="A125" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>275</v>
+      <c r="B125" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
@@ -12755,29 +12902,29 @@
         <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q125" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="R125" s="17"/>
-    </row>
-    <row r="126" ht="43.2" hidden="1" spans="1:17">
+        <v>234</v>
+      </c>
+      <c r="Q125" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="R125" s="18"/>
+    </row>
+    <row r="126" ht="43.2" spans="1:17">
       <c r="A126" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -12789,30 +12936,30 @@
         <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M126" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q126" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="127" hidden="1" spans="1:7">
-      <c r="A127" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>278</v>
+      <c r="B127" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -12821,15 +12968,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" ht="57.6" hidden="1" spans="1:7">
+    <row r="128" ht="57.6" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -12838,12 +12985,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
@@ -12853,36 +13000,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:4">
+    <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:4">
+    <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
@@ -12891,13 +13038,13 @@
     </row>
     <row r="133" ht="28.8" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -12915,41 +13062,41 @@
         <v>45</v>
       </c>
       <c r="M133" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q133" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="134" hidden="1" spans="1:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C134" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D134" t="s">
-        <v>45</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" hidden="1" spans="1:7">
-      <c r="A135" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="B135" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -12958,12 +13105,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:7">
+    <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
@@ -12973,15 +13120,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" ht="28.8" hidden="1" spans="1:16">
+    <row r="137" ht="28.8" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
@@ -12993,21 +13140,21 @@
         <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L137" t="s">
         <v>45</v>
       </c>
       <c r="P137" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="138" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -13017,12 +13164,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:7">
+    <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -13032,27 +13179,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:16">
+    <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
@@ -13064,21 +13211,21 @@
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L141" t="s">
         <v>45</v>
       </c>
       <c r="P141" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="142" ht="28.8" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" ht="28.8" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F142" t="s">
         <v>45</v>
@@ -13087,12 +13234,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" ht="28.8" hidden="1" spans="1:7">
+    <row r="143" ht="28.8" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F143" t="s">
         <v>45</v>
@@ -13101,12 +13248,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:7">
+    <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -13115,12 +13262,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" ht="28.8" hidden="1" spans="1:7">
+    <row r="145" ht="28.8" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F145" t="s">
         <v>45</v>
@@ -13129,12 +13276,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:7">
+    <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
@@ -13144,12 +13291,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:16">
+    <row r="147" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -13161,18 +13308,18 @@
         <v>45</v>
       </c>
       <c r="I147" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P147" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" hidden="1" spans="1:16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -13184,41 +13331,41 @@
         <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P148" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="149" hidden="1" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:6">
+    <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F150" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
@@ -13228,12 +13375,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
@@ -13243,12 +13390,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:16">
+    <row r="153" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
@@ -13261,22 +13408,22 @@
         <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="154" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
@@ -13286,12 +13433,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
@@ -13301,12 +13448,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
@@ -13316,12 +13463,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B157" s="14" t="s">
         <v>320</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
@@ -13331,12 +13478,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
@@ -13346,36 +13493,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
+    <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:16">
+    <row r="161" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
@@ -13388,22 +13535,22 @@
         <v>45</v>
       </c>
       <c r="I161" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="162" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
@@ -13413,12 +13560,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
@@ -13428,12 +13575,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
@@ -13443,12 +13590,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
@@ -13458,12 +13605,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
@@ -13473,12 +13620,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
@@ -13488,12 +13635,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:7">
+    <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
@@ -13503,12 +13650,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:7">
+    <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
@@ -13518,12 +13665,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:17">
+    <row r="170" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
@@ -13536,25 +13683,25 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q170" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" hidden="1" spans="1:7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
@@ -13564,12 +13711,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:7">
+    <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>338</v>
+        <v>344</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
@@ -13577,24 +13724,24 @@
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" hidden="1" spans="1:5">
+    <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:7">
+    <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>340</v>
+        <v>344</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
@@ -13604,12 +13751,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:7">
+    <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>341</v>
+        <v>344</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
@@ -13619,12 +13766,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:18">
+    <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>343</v>
+        <v>349</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>45</v>
@@ -13633,83 +13780,83 @@
         <v>45</v>
       </c>
       <c r="I176" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" hidden="1" spans="1:19">
+    <row r="177" spans="1:19">
       <c r="A177" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" hidden="1" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="179" hidden="1" spans="1:2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="180" hidden="1" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" hidden="1" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="182" hidden="1" spans="1:7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:16">
+    <row r="183" spans="1:16">
       <c r="A183" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>45</v>
@@ -13718,33 +13865,33 @@
         <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="184" hidden="1" spans="1:7">
-      <c r="A184" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="B184" s="5" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:16">
+    <row r="185" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>45</v>
@@ -13753,22 +13900,22 @@
         <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="186" hidden="1" spans="1:16">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>45</v>
@@ -13777,22 +13924,22 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" hidden="1" spans="1:16">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>45</v>
@@ -13801,22 +13948,22 @@
         <v>45</v>
       </c>
       <c r="I187" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" hidden="1" spans="1:16">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>45</v>
@@ -13825,22 +13972,22 @@
         <v>45</v>
       </c>
       <c r="I188" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="189" hidden="1" spans="1:16">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>45</v>
@@ -13849,76 +13996,68 @@
         <v>45</v>
       </c>
       <c r="I189" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="190" hidden="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:7">
+    <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:2">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="194" hidden="1" spans="16:16">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="194" spans="16:16">
       <c r="P194" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="195" hidden="1" spans="16:16">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="16:16">
       <c r="P195" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I195">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="谢益君"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -13941,317 +14080,317 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>371</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -14261,97 +14400,97 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:1">

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" tabRatio="537" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试框架" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="376">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -463,6 +469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -489,35 +501,6 @@
   </si>
   <si>
     <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CanvasSaveRestoreBench</t>
-    </r>
   </si>
   <si>
     <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
@@ -727,6 +710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1038,6 +1027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1162,6 +1157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1713,6 +1714,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1823,6 +1830,9 @@
     <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
   </si>
   <si>
+    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1848,11 +1858,264 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>BulkRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
+      <t>ReadPixBench</t>
+    </r>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BlendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>待实现</t>
+  </si>
+  <si>
+    <t>同save</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1880,14 +2143,23 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ReadPixBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
+      <t>LineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawVertices</t>
+  </si>
+  <si>
+    <t>class VertBench</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
   </si>
   <si>
     <r>
@@ -1897,7 +2169,33 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawColor</t>
+      <t>drawImagesRef</t>
+    </r>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>moveTo</t>
     </r>
     <r>
       <rPr>
@@ -1915,7 +2213,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>color</t>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -1933,25 +2231,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -1969,25 +2249,25 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>blendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BlendMode</t>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -2018,16 +2298,7 @@
     </r>
   </si>
   <si>
-    <t>待实现</t>
-  </si>
-  <si>
-    <t>同save</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
   </si>
   <si>
     <r>
@@ -2037,7 +2308,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawPoint</t>
+      <t>lineTo</t>
     </r>
     <r>
       <rPr>
@@ -2142,6 +2413,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>draw_path_line_to_triangle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10.5"/>
         <color rgb="FF0000FF"/>
         <rFont val="Consolas"/>
@@ -2165,23 +2447,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>LineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawVertices</t>
-  </si>
-  <si>
-    <t>class VertBench</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
+      <t>TrianglePathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
   </si>
   <si>
     <r>
@@ -2191,33 +2461,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawImagesRef</t>
-    </r>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>moveTo</t>
+      <t>arcTo</t>
     </r>
     <r>
       <rPr>
@@ -2235,7 +2479,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x</t>
+      <t>x1</t>
     </r>
     <r>
       <rPr>
@@ -2271,7 +2515,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y</t>
+      <t>y1</t>
     </r>
     <r>
       <rPr>
@@ -2298,6 +2542,150 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>startDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sweepDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">): </t>
     </r>
     <r>
@@ -2320,116 +2708,14 @@
     </r>
   </si>
   <si>
-    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lineTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawpatharcto</t>
     </r>
   </si>
   <si>
@@ -2440,286 +2726,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TrianglePathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>arcTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>startDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sweepDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>class</t>
     </r>
     <r>
@@ -3264,6 +3270,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectPathBench_AddRect</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10.5"/>
         <color rgb="FF0000FF"/>
         <rFont val="Consolas"/>
@@ -5500,6 +5517,184 @@
     <t>吴智伟</t>
   </si>
   <si>
+    <t>uint32_t OH_Drawing_PenGetColor(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetColor(OH_Drawing_Pen*, uint32_t color);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>uint8_t OH_Drawing_PenGetAlpha(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetAlpha(OH_Drawing_Pen*, uint8_t alpha);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setAlpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5525,14 +5720,14 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>RectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>uint32_t OH_Drawing_PenGetColor(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetColor(OH_Drawing_Pen*, uint32_t color);</t>
+      <t>SrcModeRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>float OH_Drawing_PenGetWidth(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetWidth(OH_Drawing_Pen*, float width);</t>
   </si>
   <si>
     <r>
@@ -5542,7 +5737,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setColor</t>
+      <t>setStrokeWidth</t>
     </r>
     <r>
       <rPr>
@@ -5560,7 +5755,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>color</t>
+      <t>width</t>
     </r>
     <r>
       <rPr>
@@ -5578,25 +5773,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -5627,12 +5804,197 @@
     </r>
   </si>
   <si>
-    <t>uint8_t OH_Drawing_PenGetAlpha(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetAlpha(OH_Drawing_Pen*, uint8_t alpha);</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kButt_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kRound_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5640,7 +6002,93 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setAlpha</t>
+      <t>draw_quad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); )</t>
+    </r>
+  </si>
+  <si>
+    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
     </r>
     <r>
       <rPr>
@@ -5654,57 +6102,117 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alpha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kSquare_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kBevel_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>draw_quad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); )</t>
+    </r>
+  </si>
+  <si>
+    <t>OH_Drawing_PenLineJoinStyle OH_Drawing_PenGetJoin(const OH_Drawing_Pen*</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetJoin(OH_Drawing_Pen*, OH_Drawing_PenLineJoinStyle</t>
   </si>
   <si>
     <r>
@@ -5714,7 +6222,25 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>class</t>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
     </r>
     <r>
       <rPr>
@@ -5728,20 +6254,129 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SrcModeRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>float OH_Drawing_PenGetWidth(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetWidth(OH_Drawing_Pen*, float width);</t>
-  </si>
-  <si>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kRound_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kMiter_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5749,271 +6384,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setStrokeWidth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kButt_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kRound_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>draw_quad</t>
     </r>
     <r>
@@ -6027,421 +6397,10 @@
     </r>
   </si>
   <si>
-    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kSquare_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kBevel_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>draw_quad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); )</t>
-    </r>
-  </si>
-  <si>
-    <t>OH_Drawing_PenLineJoinStyle OH_Drawing_PenGetJoin(const OH_Drawing_Pen*</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetJoin(OH_Drawing_Pen*, OH_Drawing_PenLineJoinStyle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kRound_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kMiter_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>draw_quad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); )</t>
-    </r>
-  </si>
-  <si>
     <t>void OH_Drawing_PenSetShaderEffect(OH_Drawing_Pen*, OH_Drawing_ShaderEf</t>
   </si>
   <si>
     <t>void OH_Drawing_PenSetPathEffect(OH_Drawing_Pen*, OH_Drawing_PathEffect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DashLineBench</t>
-    </r>
   </si>
   <si>
     <t>void OH_Drawing_PenSetFilter(OH_Drawing_Pen*, OH_Drawing_Filter*);</t>
@@ -7082,35 +7041,6 @@
         <charset val="134"/>
       </rPr>
       <t>(OH_Drawing_Image*,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilteringBench</t>
     </r>
   </si>
   <si>
@@ -8696,64 +8626,6 @@
   </si>
   <si>
     <t>60-重复计数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CirclesBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ShaderMFBench</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -8766,7 +8638,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8826,6 +8698,12 @@
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9395,16 +9273,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9413,119 +9288,122 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9565,13 +9443,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9580,16 +9464,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9918,9 +9802,9 @@
       <selection activeCell="A16" sqref="A16:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="38.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="38.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="32.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
   </cols>
@@ -9936,42 +9820,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:4">
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="23" t="s">
+    <row r="3" ht="40.5" spans="1:4">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:4">
+    <row r="4" ht="27" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -10056,31 +9940,31 @@
   <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="J55:K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="76.7777777777778" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.8888888888889" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44166666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="76.775" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40.8916666666667" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="4.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
-    <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
-    <col min="8" max="8" width="4.11111111111111" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="33.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="6.55833333333333" customWidth="1"/>
+    <col min="7" max="7" width="5.44166666666667" customWidth="1"/>
+    <col min="8" max="8" width="4.10833333333333" customWidth="1"/>
+    <col min="9" max="9" width="9.775" customWidth="1"/>
+    <col min="10" max="10" width="33.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="9.775" customWidth="1"/>
     <col min="12" max="12" width="3.66666666666667" customWidth="1"/>
-    <col min="13" max="15" width="7.44444444444444" customWidth="1"/>
+    <col min="13" max="15" width="7.44166666666667" customWidth="1"/>
     <col min="16" max="16" width="46.6666666666667" customWidth="1"/>
     <col min="17" max="18" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" ht="13.5" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -10327,7 +10211,7 @@
         <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10335,7 +10219,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -10350,7 +10234,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -10360,15 +10244,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:16">
+    <row r="14" ht="28.5" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -10383,7 +10267,7 @@
         <v>48</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -10392,12 +10276,12 @@
         <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -10405,11 +10289,11 @@
         <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
@@ -10423,23 +10307,23 @@
         <v>45</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" ht="28.8" spans="1:17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -10454,7 +10338,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -10463,15 +10347,15 @@
         <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -10479,7 +10363,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
@@ -10495,16 +10379,16 @@
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>2500</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -10513,10 +10397,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -10531,7 +10415,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10540,26 +10424,26 @@
         <v>45</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" t="s">
         <v>89</v>
       </c>
-      <c r="Q18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:17">
+    </row>
+    <row r="19" ht="28.5" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -10577,15 +10461,15 @@
         <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
         <v>93</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -10593,7 +10477,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
@@ -10609,7 +10493,7 @@
         <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -10617,7 +10501,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
@@ -10630,7 +10514,7 @@
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -10638,7 +10522,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
@@ -10654,18 +10538,18 @@
         <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -10680,7 +10564,7 @@
         <v>48</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23">
         <v>600</v>
@@ -10689,12 +10573,12 @@
         <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -10702,7 +10586,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
@@ -10718,10 +10602,10 @@
         <v>48</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" t="s">
         <v>106</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -10729,7 +10613,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -10744,10 +10628,10 @@
         <v>48</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -10755,7 +10639,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
@@ -10768,7 +10652,7 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -10776,7 +10660,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
@@ -10789,13 +10673,13 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>113</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -10803,7 +10687,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
@@ -10816,10 +10700,10 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -10827,7 +10711,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
@@ -10837,7 +10721,7 @@
         <v>45</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10845,7 +10729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -10860,7 +10744,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -10875,7 +10759,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
@@ -10890,7 +10774,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -10905,22 +10789,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" t="s">
-        <v>112</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10928,7 +10812,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
@@ -10941,14 +10825,14 @@
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -10956,7 +10840,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -10966,7 +10850,7 @@
         <v>45</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10974,7 +10858,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -10989,7 +10873,7 @@
         <v>48</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10997,7 +10881,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
@@ -11009,10 +10893,10 @@
         <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -11020,7 +10904,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -11032,47 +10916,47 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s">
-        <v>135</v>
-      </c>
       <c r="L40" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -11080,7 +10964,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
@@ -11093,21 +10977,21 @@
         <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -11119,18 +11003,18 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s">
         <v>45</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -11138,7 +11022,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
@@ -11151,10 +11035,10 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -11162,7 +11046,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
@@ -11175,10 +11059,10 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -11186,7 +11070,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
@@ -11199,10 +11083,10 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -11210,7 +11094,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
@@ -11226,19 +11110,19 @@
         <v>48</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
@@ -11247,10 +11131,10 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
@@ -11260,15 +11144,15 @@
         <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
@@ -11277,13 +11161,13 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -11292,72 +11176,84 @@
         <v>45</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s">
-        <v>112</v>
+      <c r="K51" s="14">
+        <v>125</v>
       </c>
       <c r="L51" t="s">
         <v>45</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" ht="42.75" spans="1:16">
+      <c r="A52" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" ht="43.2" spans="1:16">
-      <c r="A52" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s">
-        <v>112</v>
+      <c r="K52" s="14">
+        <v>20</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -11365,9 +11261,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:16">
+    <row r="53" ht="28.5" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>159</v>
@@ -11385,13 +11281,13 @@
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s">
         <v>45</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -11399,9 +11295,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" ht="57.6" spans="1:16">
+    <row r="54" ht="42.75" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>162</v>
@@ -11419,13 +11315,13 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -11435,7 +11331,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>165</v>
@@ -11450,18 +11346,24 @@
         <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" s="14">
+        <v>160</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -11474,25 +11376,25 @@
         <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -11504,15 +11406,15 @@
         <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -11524,18 +11426,18 @@
         <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -11547,15 +11449,15 @@
         <v>45</v>
       </c>
       <c r="P59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
@@ -11568,22 +11470,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q60" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="R60" s="13"/>
+      <c r="Q60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R60" s="15"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -11595,21 +11497,21 @@
         <v>45</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
@@ -11621,29 +11523,29 @@
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -11655,26 +11557,26 @@
         <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
@@ -11694,10 +11596,10 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
@@ -11717,10 +11619,10 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
@@ -11740,10 +11642,10 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
@@ -11763,10 +11665,10 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
@@ -11786,10 +11688,10 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
@@ -11809,10 +11711,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
@@ -11824,10 +11726,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
@@ -11839,10 +11741,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
@@ -11854,10 +11756,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
@@ -11869,10 +11771,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
@@ -11884,10 +11786,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
@@ -11899,10 +11801,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
@@ -11914,10 +11816,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
@@ -11929,10 +11831,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
@@ -11941,10 +11843,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
@@ -11953,10 +11855,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
@@ -11968,13 +11870,13 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
         <v>45</v>
@@ -11986,21 +11888,21 @@
         <v>45</v>
       </c>
       <c r="I81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L81" t="s">
         <v>45</v>
       </c>
       <c r="M81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>208</v>
@@ -12013,9 +11915,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>209</v>
@@ -12032,7 +11934,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>211</v>
@@ -12047,7 +11949,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>212</v>
@@ -12065,13 +11967,13 @@
         <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s">
         <v>45</v>
       </c>
       <c r="M85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>214</v>
@@ -12079,7 +11981,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>215</v>
@@ -12094,7 +11996,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>216</v>
@@ -12112,25 +12014,25 @@
         <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s">
         <v>45</v>
       </c>
       <c r="M87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q87" s="16" t="s">
+      <c r="Q87" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="R87" s="16"/>
+      <c r="R87" s="18"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>220</v>
@@ -12145,7 +12047,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>221</v>
@@ -12160,17 +12062,17 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P89" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
+        <v>97</v>
+      </c>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>222</v>
@@ -12185,7 +12087,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>223</v>
@@ -12200,19 +12102,19 @@
         <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q91" s="16" t="s">
+      <c r="Q91" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="R91" s="16"/>
+      <c r="R91" s="18"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>225</v>
@@ -12227,7 +12129,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>226</v>
@@ -12242,19 +12144,19 @@
         <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q93" s="16" t="s">
+      <c r="Q93" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="R93" s="16"/>
+      <c r="R93" s="18"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>228</v>
@@ -12270,12 +12172,12 @@
         <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>229</v>
@@ -12290,18 +12192,18 @@
         <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
@@ -12314,50 +12216,50 @@
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
+        <v>207</v>
+      </c>
+      <c r="P97" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D97" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" t="s">
-        <v>45</v>
-      </c>
-      <c r="I97" t="s">
-        <v>205</v>
-      </c>
-      <c r="L97" t="s">
-        <v>45</v>
-      </c>
-      <c r="M97" t="s">
-        <v>206</v>
-      </c>
-      <c r="P97" s="1" t="s">
+      <c r="Q97" t="s">
         <v>234</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
@@ -12367,15 +12269,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" ht="28.8" spans="1:7">
+    <row r="99" ht="28.5" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
@@ -12386,10 +12288,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
@@ -12401,11 +12303,11 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -12413,10 +12315,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
@@ -12425,10 +12327,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
@@ -12437,10 +12339,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
@@ -12449,57 +12351,57 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105" t="s">
+        <v>207</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q105" t="s">
         <v>246</v>
-      </c>
-      <c r="H105" t="s">
-        <v>45</v>
-      </c>
-      <c r="I105" t="s">
-        <v>205</v>
-      </c>
-      <c r="L105" t="s">
-        <v>45</v>
-      </c>
-      <c r="M105" t="s">
-        <v>206</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" ht="28.8" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>210</v>
@@ -12510,10 +12412,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
@@ -12522,10 +12424,10 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>213</v>
@@ -12537,53 +12439,53 @@
         <v>45</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L109" t="s">
         <v>45</v>
       </c>
       <c r="M109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P109" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q109" t="s">
         <v>252</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="P110" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D110" t="s">
-        <v>45</v>
-      </c>
-      <c r="H110" t="s">
-        <v>45</v>
-      </c>
-      <c r="I110" t="s">
-        <v>205</v>
-      </c>
-      <c r="P110" s="1" t="s">
+      <c r="Q110" t="s">
         <v>255</v>
       </c>
-      <c r="Q110" t="s">
+    </row>
+    <row r="111" ht="28.5" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="111" ht="28.8" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="C111" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -12591,42 +12493,42 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s">
+        <v>207</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q112" t="s">
         <v>258</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D112" t="s">
-        <v>45</v>
-      </c>
-      <c r="H112" t="s">
-        <v>45</v>
-      </c>
-      <c r="I112" t="s">
-        <v>205</v>
-      </c>
-      <c r="L112" t="s">
-        <v>45</v>
-      </c>
-      <c r="M112" t="s">
-        <v>206</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
@@ -12635,10 +12537,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
@@ -12647,49 +12549,49 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" ht="28.8" spans="1:18">
+    <row r="116" ht="27" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s">
+        <v>111</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q116" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="D116" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116" t="s">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" t="s">
-        <v>112</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q116" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="R116" s="9"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -12701,18 +12603,18 @@
         <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
@@ -12725,18 +12627,18 @@
         <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
@@ -12749,18 +12651,18 @@
         <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
@@ -12773,18 +12675,18 @@
         <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
@@ -12793,10 +12695,10 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
@@ -12809,25 +12711,25 @@
         <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" spans="1:18">
+      <c r="A123" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" ht="28.8" spans="1:18">
-      <c r="A123" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
@@ -12840,26 +12742,26 @@
         <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q123" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="R123" s="18"/>
+        <v>233</v>
+      </c>
+      <c r="Q123" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R123" s="20"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="D124" t="s">
         <v>45</v>
@@ -12871,25 +12773,25 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q124" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
@@ -12902,81 +12804,81 @@
         <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q125" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q125" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R125" s="20"/>
+    </row>
+    <row r="126" ht="28.5" spans="1:17">
+      <c r="A126" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s">
+        <v>111</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M126" t="s">
+        <v>207</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q126" t="s">
         <v>279</v>
-      </c>
-      <c r="R125" s="18"/>
-    </row>
-    <row r="126" ht="43.2" spans="1:17">
-      <c r="A126" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D126" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I126" t="s">
-        <v>112</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M126" t="s">
-        <v>206</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" t="s">
+        <v>45</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" ht="42.75" spans="1:7">
+      <c r="A128" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C128" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="D127" t="s">
-        <v>45</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" ht="57.6" spans="1:7">
-      <c r="A128" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -12987,10 +12889,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>289</v>
+        <v>272</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
@@ -13002,10 +12904,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>290</v>
+        <v>272</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
@@ -13014,10 +12916,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>291</v>
+        <v>272</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
@@ -13026,25 +12928,25 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" ht="28.8" spans="1:17">
+    <row r="133" spans="1:17">
       <c r="A133" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="C133" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -13062,24 +12964,24 @@
         <v>45</v>
       </c>
       <c r="M133" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D134" t="s">
         <v>45</v>
@@ -13090,13 +12992,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -13107,10 +13009,10 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
@@ -13120,15 +13022,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" ht="28.8" spans="1:16">
+    <row r="137" ht="28.5" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
@@ -13140,21 +13042,21 @@
         <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L137" t="s">
         <v>45</v>
       </c>
       <c r="P137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -13166,10 +13068,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -13181,10 +13083,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
@@ -13193,53 +13095,53 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s">
+        <v>206</v>
+      </c>
+      <c r="L141" t="s">
+        <v>45</v>
+      </c>
+      <c r="P141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" ht="28.5" spans="1:7">
+      <c r="A142" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="F142" t="s">
+        <v>45</v>
+      </c>
+      <c r="G142" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="1:7">
+      <c r="A143" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="D141" t="s">
-        <v>45</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H141" t="s">
-        <v>45</v>
-      </c>
-      <c r="I141" t="s">
-        <v>205</v>
-      </c>
-      <c r="L141" t="s">
-        <v>45</v>
-      </c>
-      <c r="P141" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" ht="28.8" spans="1:7">
-      <c r="A142" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F142" t="s">
-        <v>45</v>
-      </c>
-      <c r="G142" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" ht="28.8" spans="1:7">
-      <c r="A143" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>311</v>
       </c>
       <c r="F143" t="s">
         <v>45</v>
@@ -13250,10 +13152,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -13262,12 +13164,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" ht="28.8" spans="1:7">
+    <row r="145" ht="28.5" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F145" t="s">
         <v>45</v>
@@ -13278,10 +13180,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
@@ -13293,11 +13195,11 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="D147" t="s">
         <v>45</v>
       </c>
@@ -13308,18 +13210,18 @@
         <v>45</v>
       </c>
       <c r="I147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P147" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -13331,18 +13233,18 @@
         <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
@@ -13351,10 +13253,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F150" t="s">
         <v>45</v>
@@ -13362,10 +13264,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
@@ -13377,10 +13279,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
@@ -13392,10 +13294,10 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
@@ -13408,22 +13310,22 @@
         <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
@@ -13435,10 +13337,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
@@ -13450,10 +13352,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
@@ -13465,10 +13367,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>327</v>
+        <v>318</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>325</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
@@ -13480,10 +13382,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
@@ -13495,10 +13397,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
@@ -13507,10 +13409,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
@@ -13519,10 +13421,10 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
@@ -13535,22 +13437,22 @@
         <v>45</v>
       </c>
       <c r="I161" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
@@ -13562,10 +13464,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
@@ -13577,10 +13479,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
@@ -13592,10 +13494,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
@@ -13607,10 +13509,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
@@ -13622,10 +13524,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
@@ -13637,10 +13539,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
@@ -13652,10 +13554,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>340</v>
+        <v>327</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
@@ -13667,10 +13569,10 @@
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>341</v>
+        <v>327</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
@@ -13683,25 +13585,25 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q170" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>343</v>
+        <v>327</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
@@ -13713,10 +13615,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
@@ -13726,10 +13628,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="22" t="s">
         <v>344</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
@@ -13738,10 +13640,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
@@ -13753,10 +13655,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>348</v>
+        <v>342</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
@@ -13768,10 +13670,10 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B176" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>45</v>
@@ -13780,72 +13682,72 @@
         <v>45</v>
       </c>
       <c r="I176" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R176" s="2"/>
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S177" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S177" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>45</v>
@@ -13853,10 +13755,10 @@
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>45</v>
@@ -13865,22 +13767,22 @@
         <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>45</v>
@@ -13888,10 +13790,10 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>45</v>
@@ -13900,22 +13802,22 @@
         <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>45</v>
@@ -13924,22 +13826,22 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>45</v>
@@ -13948,22 +13850,22 @@
         <v>45</v>
       </c>
       <c r="I187" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>45</v>
@@ -13972,22 +13874,22 @@
         <v>45</v>
       </c>
       <c r="I188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>45</v>
@@ -13996,22 +13898,22 @@
         <v>45</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>45</v>
@@ -14019,10 +13921,10 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>45</v>
@@ -14030,10 +13932,10 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>45</v>
@@ -14041,20 +13943,20 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="16:16">
       <c r="P195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -14073,324 +13975,324 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="14.25" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="14.25" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="14.25" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" ht="14.25" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="14.25" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" ht="14.25" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -14400,97 +14302,97 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:1">

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="394">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -463,6 +469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -489,35 +501,6 @@
   </si>
   <si>
     <t>void OH_Drawing_CanvasRestore(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CanvasSaveRestoreBench</t>
-    </r>
   </si>
   <si>
     <t>uint32_t OH_Drawing_CanvasGetSaveCount(OH_Drawing_Canvas*);</t>
@@ -1000,6 +983,38 @@
   </si>
   <si>
     <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DrawBitmapAABench</t>
+    </r>
+  </si>
+  <si>
+    <t>无bitmap，直接用drawimage的</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
+  </si>
+  <si>
+    <t>bulkrect_grid_sharedimage_ref</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF0000FF"/>
@@ -1024,17 +1039,109 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>DrawBitmapAABench</t>
-    </r>
-  </si>
-  <si>
-    <t>无bitmap，直接用drawimage的</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBitmapRect(OH_Drawing_Canvas*, const OH_Drawing_Bitmap*, const OH_Drawing_Rect* src,</t>
-  </si>
-  <si>
-    <t>bulkrect_grid_sharedimage_ref</t>
+      <t>BulkRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>drawImagesRef</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawRect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>rects_stroke_0_aa</t>
   </si>
   <si>
     <r>
@@ -1056,14 +1163,770 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>RectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>同setaa</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawCircle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>clip_strategy_mask_5</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClipStrategyBench</t>
+    </r>
+  </si>
+  <si>
+    <t>drawcircle的分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovals_stroke_0_aa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OvalBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rrects_stroke_0_aa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawTextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlobCachedBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TextBlobFirstTimeBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaclip_rect_AA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAClipBench</t>
+    </r>
+  </si>
+  <si>
+    <t>走有clip分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaclip_path_AA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAClipBench</t>
+    </r>
+  </si>
+  <si>
+    <t>clip之后画rect</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
+  </si>
+  <si>
+    <t>蒋慕寒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BigPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>选择其中1个分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilteringBench</t>
+    </r>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>功能辅助带上</t>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ShadowBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClearBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>BulkRectBench</t>
     </r>
   </si>
   <si>
-    <t>drawImagesRef</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
+    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ReadPixBench</t>
+    </r>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
   </si>
   <si>
     <r>
@@ -1073,7 +1936,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawRect</t>
+      <t>drawColor</t>
     </r>
     <r>
       <rPr>
@@ -1091,7 +1954,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>rect</t>
+      <t>color</t>
     </r>
     <r>
       <rPr>
@@ -1127,7 +1990,43 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Rect</t>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BlendMode</t>
     </r>
     <r>
       <rPr>
@@ -1158,7 +2057,126 @@
     </r>
   </si>
   <si>
-    <t>rects_stroke_0_aa</t>
+    <t>待实现</t>
+  </si>
+  <si>
+    <t>同save</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1180,14 +2198,23 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>RectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>同setaa</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawCircle(OH_Drawing_Canvas*, const OH_Drawing_Point*, float radius);</t>
+      <t>LineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawVertices</t>
+  </si>
+  <si>
+    <t>class VertBench</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
   </si>
   <si>
     <r>
@@ -1197,7 +2224,33 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawCircle</t>
+      <t>drawImagesRef</t>
+    </r>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>moveTo</t>
     </r>
     <r>
       <rPr>
@@ -1278,6 +2331,83 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lineTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1287,7 +2417,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>radius</t>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -1337,12 +2467,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1361,23 +2485,268 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ClipStrategyBench</t>
-    </r>
-  </si>
-  <si>
-    <t>drawcircle的分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawOval(OH_Drawing_Canvas*, const OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
+      <t>TrianglePathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arcTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>startDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sweepDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>class</t>
     </r>
     <r>
@@ -1396,49 +2765,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>OvalBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawArc(OH_Drawing_Canvas*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRoundRect(OH_Drawing_Canvas*, const OH_Drawing_RoundRect*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawTextBlob(OH_Drawing_Canvas*, const OH_Drawing_TextBlob*, float x, float y);</t>
+      <t>CirclesBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathQuadTo(OH_Drawing_Path*, float ctrlX, float ctrlY, float endX, float endY);</t>
   </si>
   <si>
     <r>
@@ -1448,7 +2779,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawTextBlob</t>
+      <t>quadTo</t>
     </r>
     <r>
       <rPr>
@@ -1466,7 +2797,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>blob</t>
+      <t>ctrlX</t>
     </r>
     <r>
       <rPr>
@@ -1484,7 +2815,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>TextBlob</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -1502,7 +2833,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x</t>
+      <t>ctrlY</t>
     </r>
     <r>
       <rPr>
@@ -1538,7 +2869,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y</t>
+      <t>endX</t>
     </r>
     <r>
       <rPr>
@@ -1565,6 +2896,42 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>endY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">): </t>
     </r>
     <r>
@@ -1588,1352 +2955,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlobCachedBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TextBlobFirstTimeBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipRect(OH_Drawing_Canvas*, const OH_Drawing_Rect*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AAClipBench</t>
-    </r>
-  </si>
-  <si>
-    <t>走有clip分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClipPath(OH_Drawing_Canvas*, const OH_Drawing_Path*,</t>
-  </si>
-  <si>
-    <t>clip之后画rect</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
-  </si>
-  <si>
-    <t>蒋慕寒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BigPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>选择其中1个分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilteringBench</t>
-    </r>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>功能辅助带上</t>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ShadowBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClearBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BulkRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ReadPixBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawColor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>blendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BlendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>待实现</t>
-  </si>
-  <si>
-    <t>同save</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawPoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawVertices</t>
-  </si>
-  <si>
-    <t>class VertBench</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImagesRef</t>
-    </r>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>moveTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lineTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TrianglePathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>arcTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>startDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sweepDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CirclesBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathQuadTo(OH_Drawing_Path*, float ctrlX, float ctrlY, float endX, float endY);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>quadTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>endX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>endY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -3231,6 +3252,58 @@
   </si>
   <si>
     <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CubicPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathAddRect(OH_Drawing_Path*, float left, float top, float right, float bottom,</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathAddRoundRect(OH_Drawing_Path*, const OH_Drawing_RoundRect* roundRect, OH_Drawing_PathDirection);</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF0000FF"/>
@@ -3255,11 +3328,17 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>CubicPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathAddRect(OH_Drawing_Path*, float left, float top, float right, float bottom,</t>
+      <t>NestedAAClipBench</t>
+    </r>
+  </si>
+  <si>
+    <t>有addRoundRect分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathAddArc(OH_Drawing_Path*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathAddPath(OH_Drawing_Path*, const OH_Drawing_Path* src, const OH_Drawing_Matrix*);</t>
   </si>
   <si>
     <r>
@@ -3287,76 +3366,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>RectPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathAddRoundRect(OH_Drawing_Path*, const OH_Drawing_RoundRect* roundRect, OH_Drawing_PathDirection);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NestedAAClipBench</t>
-    </r>
-  </si>
-  <si>
-    <t>有addRoundRect分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathAddArc(OH_Drawing_Path*, const OH_Drawing_Rect*, float startAngle, float sweepAngle);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathAddPath(OH_Drawing_Path*, const OH_Drawing_Path* src, const OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>SkBench_AddPathTest</t>
     </r>
   </si>
@@ -3368,12 +3377,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -5817,12 +5820,229 @@
   </si>
   <si>
     <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF0000FF"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kButt_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kRound_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>draw_quad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); )</t>
+    </r>
+  </si>
+  <si>
+    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -5843,200 +6063,6 @@
       </rPr>
       <t>BezierBench</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kButt_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kRound_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>draw_quad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); )</t>
-    </r>
-  </si>
-  <si>
-    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
   </si>
   <si>
     <r>
@@ -7082,35 +7108,6 @@
         <charset val="134"/>
       </rPr>
       <t>(OH_Drawing_Image*,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilteringBench</t>
     </r>
   </si>
   <si>
@@ -8752,7 +8749,268 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ShaderMFBench</t>
+      <t>ClipStrategyBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CubicPathBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DrawBitmapAABench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HairlinePathBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LineBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LongCurvedPathBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OvalBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RectPathBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RRectBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TrianglePathBench</t>
     </r>
   </si>
 </sst>
@@ -9525,7 +9783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9565,6 +9823,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9600,6 +9861,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -9915,7 +10179,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9940,10 +10204,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -9951,13 +10215,13 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -9968,10 +10232,10 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -10014,7 +10278,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10044,6 +10308,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" display="https://gitee.com/openharmony/docs/blob/master/zh-cn/application-dev/graphics/drawing-guidelines.md"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -10052,13 +10319,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10139,7 +10406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" hidden="1" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -10151,7 +10418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -10163,7 +10430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" hidden="1" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -10181,7 +10448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -10195,7 +10462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -10209,7 +10476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" hidden="1" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -10223,7 +10490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -10327,15 +10594,15 @@
         <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -10345,12 +10612,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -10365,10 +10632,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -10383,7 +10650,7 @@
         <v>48</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -10392,24 +10659,24 @@
         <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
@@ -10423,12 +10690,12 @@
         <v>45</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:17">
@@ -10436,10 +10703,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -10454,7 +10721,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -10463,15 +10730,15 @@
         <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -10479,7 +10746,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
@@ -10495,16 +10762,16 @@
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>2500</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -10513,10 +10780,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -10531,7 +10798,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10540,15 +10807,15 @@
         <v>45</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" t="s">
         <v>89</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:17">
@@ -10556,10 +10823,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -10573,11 +10840,17 @@
       <c r="I19" t="s">
         <v>48</v>
       </c>
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
       <c r="L19" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10608,16 +10881,22 @@
       <c r="I20" t="s">
         <v>48</v>
       </c>
+      <c r="J20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20">
+        <v>1.2</v>
+      </c>
       <c r="P20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
@@ -10630,7 +10909,7 @@
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -10638,7 +10917,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
@@ -10653,8 +10932,14 @@
       <c r="I22" t="s">
         <v>48</v>
       </c>
+      <c r="J22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
       <c r="P22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:16">
@@ -10662,10 +10947,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -10680,7 +10965,7 @@
         <v>48</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>600</v>
@@ -10689,12 +10974,12 @@
         <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -10702,7 +10987,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
@@ -10717,11 +11002,17 @@
       <c r="I24" t="s">
         <v>48</v>
       </c>
+      <c r="J24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
       <c r="P24" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -10729,7 +11020,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -10743,19 +11034,25 @@
       <c r="I25" t="s">
         <v>48</v>
       </c>
+      <c r="J25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
       <c r="P25" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
@@ -10768,15 +11065,15 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
@@ -10789,21 +11086,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
@@ -10816,18 +11113,18 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:19">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
@@ -10837,15 +11134,15 @@
         <v>45</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -10855,12 +11152,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -10870,12 +11167,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
@@ -10885,12 +11182,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -10900,12 +11197,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" hidden="1" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
@@ -10917,18 +11214,18 @@
         <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
@@ -10941,22 +11238,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -10966,7 +11263,7 @@
         <v>45</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10974,7 +11271,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -10988,16 +11285,22 @@
       <c r="I37" t="s">
         <v>48</v>
       </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
       <c r="P37" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:16">
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
@@ -11009,18 +11312,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -11032,21 +11335,21 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" hidden="1" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
@@ -11058,29 +11361,29 @@
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
@@ -11093,21 +11396,21 @@
         <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" hidden="1" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -11119,26 +11422,26 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s">
         <v>45</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
@@ -11151,18 +11454,18 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:16">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
@@ -11175,18 +11478,18 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:16">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
@@ -11199,10 +11502,10 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -11210,7 +11513,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
@@ -11226,31 +11529,31 @@
         <v>48</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" hidden="1" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
@@ -11260,30 +11563,30 @@
         <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" hidden="1" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -11292,20 +11595,20 @@
         <v>45</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" hidden="1" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -11317,29 +11620,29 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L51" t="s">
         <v>45</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" ht="43.2" spans="1:16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" hidden="1" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -11351,29 +11654,29 @@
         <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" spans="1:16">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" ht="28.8" hidden="1" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -11385,29 +11688,29 @@
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
         <v>45</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" ht="57.6" spans="1:16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" ht="57.6" hidden="1" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -11419,26 +11722,26 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -11450,18 +11753,18 @@
         <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:17">
       <c r="A56" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -11474,25 +11777,25 @@
         <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -11504,15 +11807,15 @@
         <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -11524,18 +11827,18 @@
         <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -11547,15 +11850,15 @@
         <v>45</v>
       </c>
       <c r="P59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
@@ -11568,22 +11871,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="R60" s="13"/>
-    </row>
-    <row r="61" spans="1:17">
+        <v>180</v>
+      </c>
+      <c r="Q60" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" hidden="1" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -11595,21 +11898,21 @@
         <v>45</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q61" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
@@ -11621,29 +11924,29 @@
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -11655,26 +11958,26 @@
         <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
@@ -11692,12 +11995,12 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" hidden="1" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
@@ -11715,12 +12018,12 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" hidden="1" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
@@ -11738,12 +12041,12 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" hidden="1" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
@@ -11761,12 +12064,12 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" hidden="1" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
@@ -11784,12 +12087,12 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" hidden="1" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
@@ -11807,12 +12110,12 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
@@ -11822,12 +12125,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
@@ -11837,12 +12140,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
@@ -11852,12 +12155,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
@@ -11867,12 +12170,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
@@ -11882,12 +12185,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
@@ -11897,12 +12200,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
@@ -11912,12 +12215,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
@@ -11927,36 +12230,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
@@ -11966,44 +12269,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" hidden="1" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>210</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>211</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:7">
+      <c r="A82" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s">
-        <v>205</v>
-      </c>
-      <c r="L81" t="s">
-        <v>45</v>
-      </c>
-      <c r="M81" t="s">
-        <v>206</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="B82" s="5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
@@ -12013,15 +12316,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:7">
+    <row r="83" ht="28.8" hidden="1" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -12030,12 +12333,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
@@ -12045,15 +12348,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" hidden="1" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
@@ -12065,24 +12368,24 @@
         <v>45</v>
       </c>
       <c r="I85" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L85" t="s">
         <v>45</v>
       </c>
       <c r="M85" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
@@ -12092,15 +12395,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" hidden="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
@@ -12112,28 +12415,28 @@
         <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s">
         <v>45</v>
       </c>
       <c r="M87" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q87" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="R87" s="16"/>
-    </row>
-    <row r="88" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="Q87" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="R87" s="17"/>
+    </row>
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
@@ -12143,12 +12446,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" hidden="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D89" t="s">
         <v>45</v>
@@ -12160,20 +12463,20 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P89" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-    </row>
-    <row r="90" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+    </row>
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
@@ -12183,12 +12486,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" hidden="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
         <v>45</v>
@@ -12200,22 +12503,22 @@
         <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q91" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="R91" s="16"/>
-    </row>
-    <row r="92" spans="1:7">
+        <v>229</v>
+      </c>
+      <c r="Q91" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="R91" s="17"/>
+    </row>
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
@@ -12225,12 +12528,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" hidden="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -12242,22 +12545,22 @@
         <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q93" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="R93" s="16"/>
-    </row>
-    <row r="94" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="Q93" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="R93" s="17"/>
+    </row>
+    <row r="94" hidden="1" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
@@ -12270,15 +12573,15 @@
         <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -12290,18 +12593,18 @@
         <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
@@ -12314,18 +12617,18 @@
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -12337,27 +12640,27 @@
         <v>45</v>
       </c>
       <c r="I97" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L97" t="s">
         <v>45</v>
       </c>
       <c r="M97" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
@@ -12367,15 +12670,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" ht="28.8" spans="1:7">
+    <row r="99" ht="28.8" hidden="1" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
@@ -12384,12 +12687,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
@@ -12399,136 +12702,136 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" hidden="1" spans="1:17">
       <c r="A105" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H105" t="s">
         <v>45</v>
       </c>
       <c r="I105" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L105" t="s">
         <v>45</v>
       </c>
       <c r="M105" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="Q105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="B106" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" ht="28.8" spans="1:4">
+    <row r="107" ht="28.8" hidden="1" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" hidden="1" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -12537,27 +12840,27 @@
         <v>45</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L109" t="s">
         <v>45</v>
       </c>
       <c r="M109" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -12566,38 +12869,38 @@
         <v>45</v>
       </c>
       <c r="I110" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q110" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="111" ht="28.8" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" ht="28.8" hidden="1" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" hidden="1" spans="1:17">
       <c r="A112" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -12606,63 +12909,63 @@
         <v>45</v>
       </c>
       <c r="I112" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L112" t="s">
         <v>45</v>
       </c>
       <c r="M112" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q112" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" ht="28.8" spans="1:18">
+    <row r="116" ht="28.8" hidden="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>264</v>
+        <v>269</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D116" t="s">
         <v>45</v>
@@ -12674,22 +12977,22 @@
         <v>45</v>
       </c>
       <c r="I116" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="R116" s="9"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" hidden="1" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -12701,18 +13004,18 @@
         <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
@@ -12725,18 +13028,18 @@
         <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
@@ -12749,18 +13052,18 @@
         <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>271</v>
+        <v>275</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
@@ -12773,30 +13076,30 @@
         <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" hidden="1" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
@@ -12809,25 +13112,25 @@
         <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q122" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" ht="28.8" spans="1:18">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" hidden="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
@@ -12840,26 +13143,26 @@
         <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q123" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q123" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="R123" s="19"/>
+    </row>
+    <row r="124" hidden="1" spans="1:17">
+      <c r="A124" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="R123" s="18"/>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="A124" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>280</v>
+      <c r="B124" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="D124" t="s">
         <v>45</v>
@@ -12871,25 +13174,25 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q124" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
@@ -12902,29 +13205,29 @@
         <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q125" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q125" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="R125" s="19"/>
+    </row>
+    <row r="126" ht="43.2" hidden="1" spans="1:17">
+      <c r="A126" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="R125" s="18"/>
-    </row>
-    <row r="126" ht="43.2" spans="1:17">
-      <c r="A126" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>283</v>
+      <c r="B126" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -12936,30 +13239,30 @@
         <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M126" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q126" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -12968,15 +13271,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" ht="57.6" spans="1:7">
+    <row r="128" ht="57.6" hidden="1" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -12985,12 +13288,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
@@ -13000,36 +13303,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>291</v>
+        <v>279</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
@@ -13038,13 +13341,13 @@
     </row>
     <row r="133" ht="28.8" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -13062,24 +13365,24 @@
         <v>45</v>
       </c>
       <c r="M133" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q133" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:7">
+      <c r="A134" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="B134" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
         <v>45</v>
@@ -13088,15 +13391,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -13105,12 +13408,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
@@ -13120,15 +13423,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" ht="28.8" spans="1:16">
+    <row r="137" ht="28.8" hidden="1" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
@@ -13140,21 +13443,21 @@
         <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L137" t="s">
         <v>45</v>
       </c>
       <c r="P137" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -13164,12 +13467,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -13179,27 +13482,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" hidden="1" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
@@ -13211,21 +13514,21 @@
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L141" t="s">
         <v>45</v>
       </c>
       <c r="P141" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" ht="28.8" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" ht="28.8" hidden="1" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F142" t="s">
         <v>45</v>
@@ -13234,12 +13537,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" ht="28.8" spans="1:7">
+    <row r="143" ht="28.8" hidden="1" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F143" t="s">
         <v>45</v>
@@ -13248,12 +13551,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -13262,12 +13565,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" ht="28.8" spans="1:7">
+    <row r="145" ht="28.8" hidden="1" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F145" t="s">
         <v>45</v>
@@ -13276,12 +13579,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
@@ -13291,12 +13594,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" hidden="1" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -13308,18 +13611,18 @@
         <v>45</v>
       </c>
       <c r="I147" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P147" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -13331,41 +13634,41 @@
         <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P148" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" hidden="1" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F150" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
@@ -13375,12 +13678,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
@@ -13390,12 +13693,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" hidden="1" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
@@ -13408,22 +13711,22 @@
         <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
@@ -13433,12 +13736,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
@@ -13448,12 +13751,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
@@ -13463,12 +13766,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
@@ -13478,12 +13781,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
@@ -13493,36 +13796,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" hidden="1" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" hidden="1" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
@@ -13535,22 +13838,22 @@
         <v>45</v>
       </c>
       <c r="I161" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
@@ -13560,12 +13863,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
@@ -13575,12 +13878,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
@@ -13590,12 +13893,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
@@ -13605,12 +13908,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
@@ -13620,12 +13923,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" hidden="1" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
@@ -13635,12 +13938,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
@@ -13650,12 +13953,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>340</v>
+        <v>334</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
@@ -13665,12 +13968,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" hidden="1" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>341</v>
+        <v>334</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
@@ -13683,25 +13986,25 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q170" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>343</v>
+        <v>334</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
@@ -13711,12 +14014,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>345</v>
+        <v>349</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
@@ -13724,24 +14027,24 @@
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" hidden="1" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>346</v>
+        <v>349</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
@@ -13751,12 +14054,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
@@ -13766,12 +14069,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" hidden="1" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B176" s="21" t="s">
-        <v>350</v>
+        <v>354</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>45</v>
@@ -13780,83 +14083,83 @@
         <v>45</v>
       </c>
       <c r="I176" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" hidden="1" spans="1:19">
       <c r="A177" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" hidden="1" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" hidden="1" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" hidden="1" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B182" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:16">
+      <c r="A183" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G182" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
-      <c r="A183" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="B183" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>45</v>
@@ -13865,33 +14168,33 @@
         <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" hidden="1" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>45</v>
@@ -13900,22 +14203,22 @@
         <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" hidden="1" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>45</v>
@@ -13924,22 +14227,22 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="187" hidden="1" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>45</v>
@@ -13948,22 +14251,22 @@
         <v>45</v>
       </c>
       <c r="I187" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" hidden="1" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>45</v>
@@ -13972,22 +14275,22 @@
         <v>45</v>
       </c>
       <c r="I188" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" hidden="1" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>45</v>
@@ -13996,68 +14299,76 @@
         <v>45</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" hidden="1" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="194" spans="16:16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" hidden="1" spans="16:16">
       <c r="P194" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="195" spans="16:16">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" hidden="1" spans="16:16">
       <c r="P195" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I195">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="谢益君"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -14080,317 +14391,317 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>175</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>379</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -14400,97 +14711,97 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:1">

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" tabRatio="537" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试框架" sheetId="1" r:id="rId1"/>
@@ -14,25 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$I$1:$I$195</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="379">
   <si>
     <t>cpu离屏绘制</t>
   </si>
@@ -710,6 +697,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -983,6 +976,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1145,6 +1144,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1323,6 +1328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1364,6 +1375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1408,6 +1425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1635,6 +1658,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1675,6 +1704,18 @@
     </r>
   </si>
   <si>
+    <t>clip之后画rect</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
+  </si>
+  <si>
+    <t>蒋慕寒</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1700,20 +1741,14 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>AAClipBench</t>
-    </r>
-  </si>
-  <si>
-    <t>clip之后画rect</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasRotate(OH_Drawing_Canvas*, float degrees, float px, float py);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasTranslate(OH_Drawing_Canvas*, float dx, float dy);</t>
-  </si>
-  <si>
-    <t>蒋慕寒</t>
+      <t>BigPathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>选择其中1个分支</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
   </si>
   <si>
     <r>
@@ -1741,14 +1776,29 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>BigPathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>选择其中1个分支</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasScale(OH_Drawing_Canvas*, float sx, float sy);</t>
+      <t>FilteringBench</t>
+    </r>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>功能辅助带上</t>
+  </si>
+  <si>
+    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
   </si>
   <si>
     <r>
@@ -1776,29 +1826,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>FilteringBench</t>
-    </r>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetWidth(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>功能辅助带上</t>
-  </si>
-  <si>
-    <t>int32_t OH_Drawing_CanvasGetHeight(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetLocalClipBounds(OH_Drawing_Canvas*, OH_Drawing_Rect*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasGetTotalMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasConcatMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawShadow(OH_Drawing_Canvas*, OH_Drawing_Path*, OH_Drawing_Point3D planeParams,</t>
+      <t>ShadowBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
   </si>
   <si>
     <r>
@@ -1826,11 +1858,17 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ShadowBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasClear(OH_Drawing_Canvas*, uint32_t color);</t>
+      <t>ClearBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
   </si>
   <si>
     <r>
@@ -1858,17 +1896,273 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ClearBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasSetMatrix(OH_Drawing_Canvas*, OH_Drawing_Matrix*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRect(OH_Drawing_Canvas*, OH_Drawing_Image*,</t>
-  </si>
-  <si>
-    <r>
+      <t>ReadPixBench</t>
+    </r>
+  </si>
+  <si>
+    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BlendMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>待实现</t>
+  </si>
+  <si>
+    <t>同save</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -1887,11 +2181,272 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>BulkRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixels(OH_Drawing_Canvas*, OH_Drawing_Image_Info*,</t>
+      <t>LineBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawVertices</t>
+  </si>
+  <si>
+    <t>class VertBench</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drawImagesRef</t>
+    </r>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>moveTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lineTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1919,14 +2474,11 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>ReadPixBench</t>
-    </r>
-  </si>
-  <si>
-    <t>bool OH_Drawing_CanvasReadPixelsToBitmap(OH_Drawing_Canvas*, OH_Drawing_Bitmap*, int32_t srcX, int32_t srcY);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawBackground(OH_Drawing_Canvas*, const OH_Drawing_Brush*);</t>
+      <t>TrianglePathBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
   </si>
   <si>
     <r>
@@ -1936,7 +2488,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawColor</t>
+      <t>arcTo</t>
     </r>
     <r>
       <rPr>
@@ -1954,7 +2506,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>color</t>
+      <t>x1</t>
     </r>
     <r>
       <rPr>
@@ -1972,25 +2524,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -2008,25 +2542,169 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>blendMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BlendMode</t>
+      <t>y1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>startDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sweepDeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -2057,16 +2735,39 @@
     </r>
   </si>
   <si>
-    <t>待实现</t>
-  </si>
-  <si>
-    <t>同save</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawRegion(OH_Drawing_Canvas*, const OH_Drawing_Region*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawPoints(OH_Drawing_Canvas*, OH_Drawing_PointMode mode, uint32_t count, const OH_Drawing_Point2D*);</t>
+    <t>蒋慕寒-竹永青</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CirclesBench</t>
+    </r>
+  </si>
+  <si>
+    <t>void OH_Drawing_PathQuadTo(OH_Drawing_Path*, float ctrlX, float ctrlY, float endX, float endY);</t>
   </si>
   <si>
     <r>
@@ -2076,7 +2777,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>drawPoint</t>
+      <t>quadTo</t>
     </r>
     <r>
       <rPr>
@@ -2094,7 +2795,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>x</t>
+      <t>ctrlX</t>
     </r>
     <r>
       <rPr>
@@ -2130,7 +2831,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>y</t>
+      <t>ctrlY</t>
     </r>
     <r>
       <rPr>
@@ -2157,6 +2858,78 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>endX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>endY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">): </t>
     </r>
     <r>
@@ -2180,781 +2953,12 @@
   </si>
   <si>
     <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LineBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawVertices</t>
-  </si>
-  <si>
-    <t>class VertBench</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasShear(OH_Drawing_Canvas*, float sx, float sy);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasResetMatrix(OH_Drawing_Canvas*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_CanvasDrawImageRectWithSrc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drawImagesRef</t>
-    </r>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCreate(void);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_Path* OH_Drawing_PathCopy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathDestroy(OH_Drawing_Path*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathMoveTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>moveTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathLineTo(OH_Drawing_Path*, float x, float y);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lineTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TrianglePathBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathArcTo(OH_Drawing_Path*, float x1, float y1, float x2, float y2, float startDeg, float sweepDeg);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>arcTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>startDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sweepDeg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CirclesBench</t>
-    </r>
-  </si>
-  <si>
-    <t>void OH_Drawing_PathQuadTo(OH_Drawing_Path*, float ctrlX, float ctrlY, float endX, float endY);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>quadTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>endX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>endY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -3252,6 +3256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -3278,6 +3288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -3377,6 +3393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -5503,6 +5525,184 @@
     <t>吴智伟</t>
   </si>
   <si>
+    <t>uint32_t OH_Drawing_PenGetColor(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetColor(OH_Drawing_Pen*, uint32_t color);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>uint8_t OH_Drawing_PenGetAlpha(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetAlpha(OH_Drawing_Pen*, uint8_t alpha);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setAlpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5528,14 +5728,14 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>RectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>uint32_t OH_Drawing_PenGetColor(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetColor(OH_Drawing_Pen*, uint32_t color);</t>
+      <t>SrcModeRectBench</t>
+    </r>
+  </si>
+  <si>
+    <t>float OH_Drawing_PenGetWidth(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetWidth(OH_Drawing_Pen*, float width);</t>
   </si>
   <si>
     <r>
@@ -5545,7 +5745,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setColor</t>
+      <t>setStrokeWidth</t>
     </r>
     <r>
       <rPr>
@@ -5563,7 +5763,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>color</t>
+      <t>width</t>
     </r>
     <r>
       <rPr>
@@ -5581,25 +5781,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>common2D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Color</t>
+      <t>number</t>
     </r>
     <r>
       <rPr>
@@ -5630,12 +5812,197 @@
     </r>
   </si>
   <si>
-    <t>uint8_t OH_Drawing_PenGetAlpha(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetAlpha(OH_Drawing_Pen*, uint8_t alpha);</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kButt_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kRound_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5643,7 +6010,93 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setAlpha</t>
+      <t>draw_quad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); )</t>
+    </r>
+  </si>
+  <si>
+    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
+  </si>
+  <si>
+    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
     </r>
     <r>
       <rPr>
@@ -5657,57 +6110,117 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alpha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kSquare_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kBevel_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>draw_quad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); )</t>
+    </r>
+  </si>
+  <si>
+    <t>OH_Drawing_PenLineJoinStyle OH_Drawing_PenGetJoin(const OH_Drawing_Pen*</t>
+  </si>
+  <si>
+    <t>void OH_Drawing_PenSetJoin(OH_Drawing_Pen*, OH_Drawing_PenLineJoinStyle</t>
   </si>
   <si>
     <r>
@@ -5717,7 +6230,25 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>class</t>
+      <t>DEF_BENCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
     </r>
     <r>
       <rPr>
@@ -5731,20 +6262,129 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SrcModeRectBench</t>
-    </r>
-  </si>
-  <si>
-    <t>float OH_Drawing_PenGetWidth(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetWidth(OH_Drawing_Pen*, float width);</t>
-  </si>
-  <si>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BezierBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kRound_Cap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SkPaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kMiter_Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -5752,265 +6392,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>setStrokeWidth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kButt_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kRound_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>draw_quad</t>
     </r>
     <r>
@@ -6024,450 +6405,10 @@
     </r>
   </si>
   <si>
-    <t>float OH_Drawing_PenGetMiterLimit(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetMiterLimit(OH_Drawing_Pen*, float miter);</t>
-  </si>
-  <si>
-    <t>OH_Drawing_PenLineCapStyle OH_Drawing_PenGetCap(const OH_Drawing_Pen*);</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetCap(OH_Drawing_Pen*, OH_Drawing_PenLineCapStyle);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kSquare_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kBevel_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>draw_quad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); )</t>
-    </r>
-  </si>
-  <si>
-    <t>OH_Drawing_PenLineJoinStyle OH_Drawing_PenGetJoin(const OH_Drawing_Pen*</t>
-  </si>
-  <si>
-    <t>void OH_Drawing_PenSetJoin(OH_Drawing_Pen*, OH_Drawing_PenLineJoinStyle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DEF_BENCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFAF00DB"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BezierBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kRound_Cap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SkPaint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kMiter_Join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>draw_quad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); )</t>
-    </r>
-  </si>
-  <si>
     <t>void OH_Drawing_PenSetShaderEffect(OH_Drawing_Pen*, OH_Drawing_ShaderEf</t>
   </si>
   <si>
     <t>void OH_Drawing_PenSetPathEffect(OH_Drawing_Pen*, OH_Drawing_PathEffect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DashLineBench</t>
-    </r>
   </si>
   <si>
     <t>void OH_Drawing_PenSetFilter(OH_Drawing_Pen*, OH_Drawing_Filter*);</t>
@@ -8693,331 +8634,12 @@
   </si>
   <si>
     <t>60-重复计数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CirclesBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ClipStrategyBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CubicPathBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DrawBitmapAABench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HairlinePathBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LineBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LongCurvedPathBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OvalBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RectPathBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RRectBench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF267F99"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TrianglePathBench</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -9783,7 +9405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9819,9 +9441,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -10182,9 +9801,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="38.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="38.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="32.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
   </cols>
@@ -10200,42 +9819,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:4">
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="24" t="s">
+    <row r="3" ht="40.5" spans="1:4">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:4">
+    <row r="4" ht="27" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -10278,7 +9897,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10325,29 +9944,29 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="76.7777777777778" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.8888888888889" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44166666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40.8916666666667" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="4.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
-    <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
-    <col min="8" max="8" width="4.11111111111111" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="33.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="6.55833333333333" customWidth="1"/>
+    <col min="7" max="7" width="5.44166666666667" customWidth="1"/>
+    <col min="8" max="8" width="4.10833333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="33.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="9.775" customWidth="1"/>
     <col min="12" max="12" width="3.66666666666667" customWidth="1"/>
-    <col min="13" max="15" width="7.44444444444444" customWidth="1"/>
+    <col min="13" max="15" width="7.44166666666667" customWidth="1"/>
     <col min="16" max="16" width="46.6666666666667" customWidth="1"/>
     <col min="17" max="18" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" ht="13.5" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -10504,7 +10123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" hidden="1" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -10536,7 +10155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" hidden="1" spans="1:17">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -10568,7 +10187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" hidden="1" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -10627,7 +10246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:16">
+    <row r="14" ht="28.5" hidden="1" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -10698,7 +10317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:17">
+    <row r="16" ht="28.5" hidden="1" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -10741,7 +10360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" hidden="1" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -10775,7 +10394,7 @@
       </c>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" hidden="1" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -10818,7 +10437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:17">
+    <row r="19" ht="28.5" hidden="1" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -10861,7 +10480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" hidden="1" spans="1:16">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -10881,7 +10500,7 @@
       <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>96</v>
       </c>
       <c r="K20">
@@ -10912,7 +10531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" hidden="1" spans="1:16">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -10932,7 +10551,7 @@
       <c r="I22" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>101</v>
       </c>
       <c r="K22">
@@ -10942,7 +10561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:16">
+    <row r="23" ht="28.5" hidden="1" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -10982,7 +10601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" hidden="1" spans="1:17">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -11002,7 +10621,7 @@
       <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>108</v>
       </c>
       <c r="K24">
@@ -11015,7 +10634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" hidden="1" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -11034,17 +10653,17 @@
       <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="K25">
         <v>20</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" t="s">
         <v>113</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:16">
@@ -11052,7 +10671,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
@@ -11068,12 +10687,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:17">
+    <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
@@ -11086,21 +10705,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>118</v>
       </c>
-      <c r="Q27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:16">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
@@ -11113,10 +10732,10 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:19">
@@ -11124,7 +10743,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
@@ -11134,7 +10753,7 @@
         <v>45</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:7">
@@ -11142,7 +10761,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -11157,7 +10776,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -11172,7 +10791,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
@@ -11187,7 +10806,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -11197,35 +10816,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:16">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:16">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
@@ -11238,14 +10857,14 @@
         <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:19">
@@ -11253,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -11263,15 +10882,15 @@
         <v>45</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -11292,15 +10911,15 @@
         <v>6</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
@@ -11312,18 +10931,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:16">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -11335,33 +10954,33 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" hidden="1" spans="1:17">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" hidden="1" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
         <v>138</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s">
-        <v>140</v>
       </c>
       <c r="L40" t="s">
         <v>45</v>
@@ -11375,7 +10994,7 @@
         <v>59</v>
       </c>
       <c r="Q40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:16">
@@ -11383,7 +11002,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41"/>
       <c r="E41" t="s">
@@ -11396,21 +11015,21 @@
         <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" ht="28.8" hidden="1" spans="1:16">
+    <row r="42" hidden="1" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -11422,7 +11041,7 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s">
         <v>45</v>
@@ -11433,7 +11052,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:16">
@@ -11441,7 +11060,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43"/>
       <c r="E43" t="s">
@@ -11454,10 +11073,10 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:16">
@@ -11465,7 +11084,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44"/>
       <c r="E44" t="s">
@@ -11478,7 +11097,7 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P44" t="s">
         <v>99</v>
@@ -11489,7 +11108,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45"/>
       <c r="E45" t="s">
@@ -11502,18 +11121,18 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" hidden="1" spans="1:18">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C46"/>
       <c r="E46" t="s">
@@ -11532,16 +11151,16 @@
         <v>83</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R46" s="9"/>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
@@ -11550,10 +11169,10 @@
     </row>
     <row r="48" hidden="1" spans="1:19">
       <c r="A48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
@@ -11563,15 +11182,15 @@
         <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
@@ -11580,13 +11199,13 @@
     </row>
     <row r="50" hidden="1" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -11600,15 +11219,15 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" hidden="1" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -11620,7 +11239,7 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s">
         <v>45</v>
@@ -11631,30 +11250,30 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" ht="42.75" spans="1:16">
+      <c r="A52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" ht="43.2" hidden="1" spans="1:16">
-      <c r="A52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
         <v>161</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s">
-        <v>117</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>45</v>
@@ -11665,19 +11284,19 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" ht="28.5" spans="1:16">
+      <c r="A53" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" ht="28.8" hidden="1" spans="1:16">
-      <c r="A53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -11688,7 +11307,7 @@
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s">
         <v>45</v>
@@ -11699,19 +11318,19 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" ht="42.75" spans="1:16">
+      <c r="A54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" ht="57.6" hidden="1" spans="1:16">
-      <c r="A54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -11722,7 +11341,7 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
@@ -11733,38 +11352,38 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" hidden="1" spans="1:16">
-      <c r="A55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>117</v>
-      </c>
-      <c r="P55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="1:17">
-      <c r="A56" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -11777,25 +11396,25 @@
         <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q56" t="s">
         <v>173</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -11810,35 +11429,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:16">
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D58" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
-        <v>117</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -11853,12 +11472,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:18">
+    <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
@@ -11871,22 +11490,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q60" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="Q60" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="R60" s="14"/>
+      <c r="R60" s="13"/>
     </row>
     <row r="61" hidden="1" spans="1:17">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -11901,19 +11520,19 @@
         <v>99</v>
       </c>
       <c r="Q61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="62" hidden="1" spans="1:16">
-      <c r="A62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="D62" t="s">
         <v>45</v>
       </c>
@@ -11924,7 +11543,7 @@
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>45</v>
@@ -11935,19 +11554,19 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="63" hidden="1" spans="1:16">
-      <c r="A63" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="D63" t="s">
         <v>45</v>
       </c>
@@ -11958,7 +11577,7 @@
         <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>45</v>
@@ -11969,15 +11588,15 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64"/>
       <c r="E64" t="s">
@@ -11997,10 +11616,10 @@
     </row>
     <row r="65" hidden="1" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65"/>
       <c r="E65" t="s">
@@ -12020,10 +11639,10 @@
     </row>
     <row r="66" hidden="1" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66"/>
       <c r="E66" t="s">
@@ -12043,10 +11662,10 @@
     </row>
     <row r="67" hidden="1" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67"/>
       <c r="E67" t="s">
@@ -12066,10 +11685,10 @@
     </row>
     <row r="68" hidden="1" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68"/>
       <c r="E68" t="s">
@@ -12089,10 +11708,10 @@
     </row>
     <row r="69" hidden="1" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69"/>
       <c r="E69" t="s">
@@ -12112,10 +11731,10 @@
     </row>
     <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70"/>
       <c r="E70" t="s">
@@ -12127,10 +11746,10 @@
     </row>
     <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71"/>
       <c r="E71" t="s">
@@ -12142,10 +11761,10 @@
     </row>
     <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72"/>
       <c r="E72" t="s">
@@ -12157,10 +11776,10 @@
     </row>
     <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73"/>
       <c r="E73" t="s">
@@ -12172,10 +11791,10 @@
     </row>
     <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74"/>
       <c r="E74" t="s">
@@ -12187,10 +11806,10 @@
     </row>
     <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75"/>
       <c r="E75" t="s">
@@ -12202,10 +11821,10 @@
     </row>
     <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76"/>
       <c r="E76" t="s">
@@ -12217,10 +11836,10 @@
     </row>
     <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77"/>
       <c r="E77" t="s">
@@ -12232,10 +11851,10 @@
     </row>
     <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
@@ -12244,10 +11863,10 @@
     </row>
     <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
@@ -12256,10 +11875,10 @@
     </row>
     <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
@@ -12271,42 +11890,42 @@
     </row>
     <row r="81" hidden="1" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
         <v>209</v>
       </c>
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
         <v>210</v>
       </c>
-      <c r="L81" t="s">
-        <v>45</v>
-      </c>
-      <c r="M81" t="s">
-        <v>211</v>
-      </c>
       <c r="P81" s="1" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
@@ -12316,15 +11935,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" ht="28.8" hidden="1" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
         <v>45</v>
@@ -12335,10 +11954,10 @@
     </row>
     <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
@@ -12350,42 +11969,42 @@
     </row>
     <row r="85" hidden="1" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s">
+        <v>209</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" t="s">
+        <v>210</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" t="s">
-        <v>45</v>
-      </c>
-      <c r="H85" t="s">
-        <v>45</v>
-      </c>
-      <c r="I85" t="s">
-        <v>210</v>
-      </c>
-      <c r="L85" t="s">
-        <v>45</v>
-      </c>
-      <c r="M85" t="s">
-        <v>211</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
@@ -12397,46 +12016,46 @@
     </row>
     <row r="87" hidden="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>209</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="s">
+        <v>210</v>
+      </c>
+      <c r="P87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="Q87" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D87" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
-      <c r="H87" t="s">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s">
-        <v>210</v>
-      </c>
-      <c r="L87" t="s">
-        <v>45</v>
-      </c>
-      <c r="M87" t="s">
-        <v>211</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q87" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="R87" s="17"/>
+      <c r="R87" s="16"/>
     </row>
     <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
@@ -12448,10 +12067,10 @@
     </row>
     <row r="89" hidden="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
         <v>45</v>
@@ -12463,20 +12082,20 @@
         <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P89" t="s">
         <v>99</v>
       </c>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
     </row>
     <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
@@ -12488,10 +12107,10 @@
     </row>
     <row r="91" hidden="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
         <v>45</v>
@@ -12503,22 +12122,22 @@
         <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q91" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="R91" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="R91" s="16"/>
     </row>
     <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
@@ -12530,10 +12149,10 @@
     </row>
     <row r="93" hidden="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -12545,22 +12164,22 @@
         <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q93" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="R93" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="Q93" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="R93" s="16"/>
     </row>
     <row r="94" hidden="1" spans="1:9">
       <c r="A94" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
@@ -12573,15 +12192,15 @@
         <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" hidden="1" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -12593,18 +12212,18 @@
         <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" hidden="1" spans="1:9">
       <c r="A96" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
@@ -12617,18 +12236,18 @@
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" hidden="1" spans="1:17">
       <c r="A97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -12640,27 +12259,27 @@
         <v>45</v>
       </c>
       <c r="I97" t="s">
+        <v>209</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
         <v>210</v>
       </c>
-      <c r="L97" t="s">
-        <v>45</v>
-      </c>
-      <c r="M97" t="s">
-        <v>211</v>
-      </c>
       <c r="P97" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q97" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C98"/>
       <c r="E98" t="s">
@@ -12670,15 +12289,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" ht="28.8" hidden="1" spans="1:7">
+    <row r="99" ht="28.5" hidden="1" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E99" t="s">
         <v>45</v>
@@ -12689,10 +12308,10 @@
     </row>
     <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C100"/>
       <c r="E100" t="s">
@@ -12704,11 +12323,11 @@
     </row>
     <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -12716,10 +12335,10 @@
     </row>
     <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
@@ -12728,10 +12347,10 @@
     </row>
     <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
@@ -12740,10 +12359,10 @@
     </row>
     <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
@@ -12752,60 +12371,60 @@
     </row>
     <row r="105" hidden="1" spans="1:17">
       <c r="A105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C105" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
         <v>209</v>
       </c>
-      <c r="D105" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H105" t="s">
-        <v>45</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105" t="s">
         <v>210</v>
-      </c>
-      <c r="L105" t="s">
-        <v>45</v>
-      </c>
-      <c r="M105" t="s">
-        <v>211</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>88</v>
       </c>
       <c r="Q105" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" ht="28.8" hidden="1" spans="1:4">
+    <row r="107" hidden="1" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
@@ -12813,10 +12432,10 @@
     </row>
     <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
@@ -12825,13 +12444,13 @@
     </row>
     <row r="109" hidden="1" spans="1:17">
       <c r="A109" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -12840,27 +12459,27 @@
         <v>45</v>
       </c>
       <c r="I109" t="s">
+        <v>209</v>
+      </c>
+      <c r="L109" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109" t="s">
         <v>210</v>
       </c>
-      <c r="L109" t="s">
-        <v>45</v>
-      </c>
-      <c r="M109" t="s">
-        <v>211</v>
-      </c>
       <c r="P109" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q109" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:17">
       <c r="A110" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -12869,24 +12488,24 @@
         <v>45</v>
       </c>
       <c r="I110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q110" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" ht="28.8" hidden="1" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" ht="28.5" hidden="1" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -12894,13 +12513,13 @@
     </row>
     <row r="112" hidden="1" spans="1:17">
       <c r="A112" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -12909,27 +12528,27 @@
         <v>45</v>
       </c>
       <c r="I112" t="s">
+        <v>209</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s">
         <v>210</v>
       </c>
-      <c r="L112" t="s">
-        <v>45</v>
-      </c>
-      <c r="M112" t="s">
-        <v>211</v>
-      </c>
       <c r="P112" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q112" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C113"/>
       <c r="E113" t="s">
@@ -12938,10 +12557,10 @@
     </row>
     <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C114"/>
       <c r="E114" t="s">
@@ -12950,72 +12569,72 @@
     </row>
     <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C115"/>
       <c r="E115" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" ht="28.8" hidden="1" spans="1:18">
+    <row r="116" ht="27" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s">
+        <v>116</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q116" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="R116" s="9"/>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s">
+        <v>116</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116" t="s">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" t="s">
-        <v>117</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q116" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="R116" s="9"/>
-    </row>
-    <row r="117" hidden="1" spans="1:16">
-      <c r="A117" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s">
-        <v>45</v>
-      </c>
-      <c r="I117" t="s">
-        <v>117</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" hidden="1" spans="1:16">
-      <c r="A118" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
@@ -13028,18 +12647,18 @@
         <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:16">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="C119"/>
       <c r="E119" t="s">
@@ -13052,18 +12671,18 @@
         <v>45</v>
       </c>
       <c r="I119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" spans="1:16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
@@ -13076,30 +12695,30 @@
         <v>45</v>
       </c>
       <c r="I120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:17">
+    <row r="122" spans="1:17">
       <c r="A122" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
@@ -13112,25 +12731,25 @@
         <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q122" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="123" ht="28.8" hidden="1" spans="1:18">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" spans="1:18">
       <c r="A123" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
@@ -13143,26 +12762,26 @@
         <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q123" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="R123" s="19"/>
-    </row>
-    <row r="124" hidden="1" spans="1:17">
+        <v>236</v>
+      </c>
+      <c r="Q123" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="R123" s="18"/>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>285</v>
+        <v>275</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="D124" t="s">
         <v>45</v>
@@ -13174,25 +12793,25 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q124" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="125" hidden="1" spans="1:18">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>287</v>
+        <v>275</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
@@ -13205,29 +12824,29 @@
         <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q125" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q125" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="R125" s="18"/>
+    </row>
+    <row r="126" ht="28.5" spans="1:17">
+      <c r="A126" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="R125" s="19"/>
-    </row>
-    <row r="126" ht="43.2" hidden="1" spans="1:17">
-      <c r="A126" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="C126" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -13239,30 +12858,30 @@
         <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q126" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>290</v>
+        <v>275</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -13271,15 +12890,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" ht="57.6" hidden="1" spans="1:7">
+    <row r="128" ht="42.75" hidden="1" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>292</v>
+        <v>275</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -13290,10 +12909,10 @@
     </row>
     <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>294</v>
+        <v>275</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
@@ -13305,10 +12924,10 @@
     </row>
     <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>295</v>
+        <v>275</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
@@ -13317,10 +12936,10 @@
     </row>
     <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>296</v>
+        <v>275</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
@@ -13329,25 +12948,25 @@
     </row>
     <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" ht="28.8" spans="1:17">
+    <row r="133" hidden="1" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -13365,24 +12984,24 @@
         <v>45</v>
       </c>
       <c r="M133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q133" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D134" t="s">
         <v>45</v>
@@ -13393,13 +13012,13 @@
     </row>
     <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -13410,10 +13029,10 @@
     </row>
     <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
@@ -13423,15 +13042,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" ht="28.8" hidden="1" spans="1:16">
+    <row r="137" ht="28.5" hidden="1" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
@@ -13443,7 +13062,7 @@
         <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L137" t="s">
         <v>45</v>
@@ -13454,10 +13073,10 @@
     </row>
     <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -13469,10 +13088,10 @@
     </row>
     <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -13484,10 +13103,10 @@
     </row>
     <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
@@ -13496,13 +13115,13 @@
     </row>
     <row r="141" hidden="1" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
@@ -13514,7 +13133,7 @@
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L141" t="s">
         <v>45</v>
@@ -13523,12 +13142,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" ht="28.8" hidden="1" spans="1:7">
+    <row r="142" ht="28.5" hidden="1" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F142" t="s">
         <v>45</v>
@@ -13537,12 +13156,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" ht="28.8" hidden="1" spans="1:7">
+    <row r="143" ht="28.5" hidden="1" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F143" t="s">
         <v>45</v>
@@ -13553,10 +13172,10 @@
     </row>
     <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -13565,12 +13184,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" ht="28.8" hidden="1" spans="1:7">
+    <row r="145" ht="28.5" hidden="1" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F145" t="s">
         <v>45</v>
@@ -13581,10 +13200,10 @@
     </row>
     <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
@@ -13596,10 +13215,10 @@
     </row>
     <row r="147" hidden="1" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -13611,7 +13230,7 @@
         <v>45</v>
       </c>
       <c r="I147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P147" t="s">
         <v>99</v>
@@ -13619,10 +13238,10 @@
     </row>
     <row r="148" hidden="1" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -13634,7 +13253,7 @@
         <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P148" t="s">
         <v>99</v>
@@ -13642,10 +13261,10 @@
     </row>
     <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
@@ -13654,10 +13273,10 @@
     </row>
     <row r="150" hidden="1" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F150" t="s">
         <v>45</v>
@@ -13665,10 +13284,10 @@
     </row>
     <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
@@ -13680,10 +13299,10 @@
     </row>
     <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
@@ -13695,10 +13314,10 @@
     </row>
     <row r="153" hidden="1" spans="1:16">
       <c r="A153" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
@@ -13711,7 +13330,7 @@
         <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -13723,10 +13342,10 @@
     </row>
     <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
@@ -13738,10 +13357,10 @@
     </row>
     <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
@@ -13753,10 +13372,10 @@
     </row>
     <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
@@ -13768,10 +13387,10 @@
     </row>
     <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>332</v>
+        <v>321</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="C157"/>
       <c r="E157" t="s">
@@ -13783,10 +13402,10 @@
     </row>
     <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="C158"/>
       <c r="E158" t="s">
@@ -13798,10 +13417,10 @@
     </row>
     <row r="159" hidden="1" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
@@ -13810,10 +13429,10 @@
     </row>
     <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
@@ -13822,10 +13441,10 @@
     </row>
     <row r="161" hidden="1" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
@@ -13838,7 +13457,7 @@
         <v>45</v>
       </c>
       <c r="I161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -13850,10 +13469,10 @@
     </row>
     <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
@@ -13865,10 +13484,10 @@
     </row>
     <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
@@ -13880,10 +13499,10 @@
     </row>
     <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
@@ -13895,10 +13514,10 @@
     </row>
     <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
@@ -13910,10 +13529,10 @@
     </row>
     <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
@@ -13925,10 +13544,10 @@
     </row>
     <row r="167" hidden="1" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
@@ -13940,10 +13559,10 @@
     </row>
     <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>344</v>
+        <v>330</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="C168"/>
       <c r="E168" t="s">
@@ -13955,10 +13574,10 @@
     </row>
     <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="C169"/>
       <c r="E169" t="s">
@@ -13970,10 +13589,10 @@
     </row>
     <row r="170" hidden="1" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>346</v>
+        <v>330</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="C170"/>
       <c r="E170" t="s">
@@ -13986,7 +13605,7 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -13996,15 +13615,15 @@
         <v>99</v>
       </c>
       <c r="Q170" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>348</v>
+        <v>330</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="C171"/>
       <c r="E171" t="s">
@@ -14016,10 +13635,10 @@
     </row>
     <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="C172"/>
       <c r="E172" t="s">
@@ -14029,10 +13648,10 @@
     </row>
     <row r="173" hidden="1" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B173" s="21" t="s">
-        <v>351</v>
+        <v>345</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="C173"/>
       <c r="E173" t="s">
@@ -14041,10 +13660,10 @@
     </row>
     <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="C174"/>
       <c r="E174" t="s">
@@ -14056,10 +13675,10 @@
     </row>
     <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>353</v>
       </c>
       <c r="C175"/>
       <c r="E175" t="s">
@@ -14071,10 +13690,10 @@
     </row>
     <row r="176" hidden="1" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B176" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>45</v>
@@ -14083,72 +13702,72 @@
         <v>45</v>
       </c>
       <c r="I176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="R176" s="2"/>
     </row>
     <row r="177" hidden="1" spans="1:19">
       <c r="A177" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B177" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>355</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" hidden="1" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="179" hidden="1" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="180" hidden="1" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" hidden="1" spans="1:2">
       <c r="A181" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>45</v>
@@ -14156,10 +13775,10 @@
     </row>
     <row r="183" hidden="1" spans="1:16">
       <c r="A183" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>45</v>
@@ -14168,22 +13787,22 @@
         <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>45</v>
@@ -14191,10 +13810,10 @@
     </row>
     <row r="185" hidden="1" spans="1:16">
       <c r="A185" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>45</v>
@@ -14203,22 +13822,22 @@
         <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" hidden="1" spans="1:16">
       <c r="A186" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>45</v>
@@ -14227,22 +13846,22 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" hidden="1" spans="1:16">
       <c r="A187" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>45</v>
@@ -14251,22 +13870,22 @@
         <v>45</v>
       </c>
       <c r="I187" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" hidden="1" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>45</v>
@@ -14275,22 +13894,22 @@
         <v>45</v>
       </c>
       <c r="I188" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" hidden="1" spans="1:16">
       <c r="A189" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>45</v>
@@ -14299,7 +13918,7 @@
         <v>45</v>
       </c>
       <c r="I189" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -14311,10 +13930,10 @@
     </row>
     <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>45</v>
@@ -14322,10 +13941,10 @@
     </row>
     <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>45</v>
@@ -14333,10 +13952,10 @@
     </row>
     <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>45</v>
@@ -14344,27 +13963,27 @@
     </row>
     <row r="193" hidden="1" spans="1:2">
       <c r="A193" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" hidden="1" spans="16:16">
       <c r="P194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" hidden="1" spans="16:16">
       <c r="P195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:I195">
     <filterColumn colId="0">
       <filters>
-        <filter val="谢益君"/>
+        <filter val="蒋慕寒"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -14384,324 +14003,324 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="14.25" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" ht="14.25" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" ht="14.25" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" ht="14.25" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" ht="14.25" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" ht="14.25" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>393</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -14716,7 +14335,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:1">

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -9944,7 +9944,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11490,7 +11490,7 @@
         <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>179</v>
@@ -12744,7 +12744,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="123" ht="25.5" spans="1:18">
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>275</v>
       </c>
@@ -13982,9 +13982,9 @@
   </sheetData>
   <autoFilter ref="I1:I195">
     <filterColumn colId="0">
-      <filters>
-        <filter val="蒋慕寒"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="蒋慕寒"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -9941,15 +9941,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.44166666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="94.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="40.8916666666667" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -12596,7 +12596,7 @@
         <v>45</v>
       </c>
       <c r="I116" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>257</v>
@@ -12623,7 +12623,7 @@
         <v>45</v>
       </c>
       <c r="I117" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>257</v>
@@ -12647,7 +12647,7 @@
         <v>45</v>
       </c>
       <c r="I118" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>257</v>

--- a/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
+++ b/rosen/modules/2d_graphics/test/benchmark_0313.xlsx
@@ -9944,7 +9944,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12762,7 +12762,7 @@
         <v>45</v>
       </c>
       <c r="I123" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -12793,7 +12793,7 @@
         <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -12824,7 +12824,7 @@
         <v>45</v>
       </c>
       <c r="I125" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -12858,7 +12858,7 @@
         <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>45</v>
